--- a/data/trans_orig/P6707-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6707-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>41401</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30714</v>
+        <v>30346</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52301</v>
+        <v>52789</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3296828228923428</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2445796274242119</v>
+        <v>0.2416457896514911</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4164772828063569</v>
+        <v>0.4203647679839133</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -764,19 +764,19 @@
         <v>30040</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21648</v>
+        <v>20871</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39353</v>
+        <v>40174</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3481586846930149</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2509005739511727</v>
+        <v>0.2418920871100894</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4560931133911047</v>
+        <v>0.4656119316255843</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -785,19 +785,19 @@
         <v>71441</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>58202</v>
+        <v>58738</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87096</v>
+        <v>86898</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3372072839288211</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2747153355832568</v>
+        <v>0.2772472559118906</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4110955613515345</v>
+        <v>0.4101644139505341</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>7697</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3663</v>
+        <v>3232</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16264</v>
+        <v>15453</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06129559907249945</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02916974362369107</v>
+        <v>0.02573491401002484</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1295146369282698</v>
+        <v>0.1230504501392446</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7076</v>
+        <v>6091</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02277300896142733</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08200616681561072</v>
+        <v>0.07059728246588064</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -856,19 +856,19 @@
         <v>9662</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4976</v>
+        <v>4857</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18421</v>
+        <v>18603</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04560692747264784</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0234848920624669</v>
+        <v>0.02292538149794398</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08694893911648612</v>
+        <v>0.08780754356177493</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>23891</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16656</v>
+        <v>15949</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34829</v>
+        <v>33992</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1902468464938702</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1326365250089637</v>
+        <v>0.1270029963266036</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2773494620582161</v>
+        <v>0.2706815036549391</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -906,19 +906,19 @@
         <v>18886</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11771</v>
+        <v>11447</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28563</v>
+        <v>27458</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2188832504864333</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1364276951774405</v>
+        <v>0.1326628188044656</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3310410769934758</v>
+        <v>0.3182308838828094</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>40</v>
@@ -927,19 +927,19 @@
         <v>42777</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>30895</v>
+        <v>30677</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>55726</v>
+        <v>53705</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2019092798023427</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1458272751770298</v>
+        <v>0.1447992719996652</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2630284576371075</v>
+        <v>0.2534905973069503</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>10418</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5362</v>
+        <v>5666</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16695</v>
+        <v>17984</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.082959843744724</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04269608421396661</v>
+        <v>0.04511822121411672</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1329458091494595</v>
+        <v>0.1432120803644391</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -977,19 +977,19 @@
         <v>7875</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3147</v>
+        <v>3300</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15182</v>
+        <v>15510</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09127162583877987</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03647415723365108</v>
+        <v>0.03824347657225099</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1759608660270189</v>
+        <v>0.1797540209962672</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -998,19 +998,19 @@
         <v>18293</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11651</v>
+        <v>11397</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28338</v>
+        <v>27815</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08634489182449187</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05499299356889285</v>
+        <v>0.05379348730516372</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1337575689409878</v>
+        <v>0.1312861655410969</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>42171</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>32052</v>
+        <v>32449</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>53117</v>
+        <v>52846</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3358148877965635</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2552308365928566</v>
+        <v>0.258395117415765</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4229804737572426</v>
+        <v>0.4208225864525556</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -1048,19 +1048,19 @@
         <v>27517</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18642</v>
+        <v>18818</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37393</v>
+        <v>37958</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3189134300203447</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2160544333299729</v>
+        <v>0.2180954895079559</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4333794628785577</v>
+        <v>0.4399301427879473</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>66</v>
@@ -1069,19 +1069,19 @@
         <v>69688</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>55588</v>
+        <v>56318</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>84055</v>
+        <v>85119</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3289316169716964</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2623774558459476</v>
+        <v>0.2658226363902564</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3967457405761607</v>
+        <v>0.4017668406132204</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>23697</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15489</v>
+        <v>15453</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35538</v>
+        <v>35223</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.138433045607914</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09048225820449382</v>
+        <v>0.09027560987961827</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2076052068823752</v>
+        <v>0.2057640831897715</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1194,19 +1194,19 @@
         <v>24168</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15388</v>
+        <v>16158</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34102</v>
+        <v>35040</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1969878324122965</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1254229995631305</v>
+        <v>0.1316995596416573</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2779605217490516</v>
+        <v>0.2855984516635039</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -1215,19 +1215,19 @@
         <v>47865</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34943</v>
+        <v>34796</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62234</v>
+        <v>63183</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1628792614462344</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1189057241133266</v>
+        <v>0.1184075413359228</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2117756508022386</v>
+        <v>0.2150052858430861</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>14950</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8837</v>
+        <v>8343</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24830</v>
+        <v>24115</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08733660423410509</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05162517722933882</v>
+        <v>0.04874043850760491</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1450499827941837</v>
+        <v>0.140876339036318</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -1265,19 +1265,19 @@
         <v>14931</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8600</v>
+        <v>8906</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24286</v>
+        <v>23014</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1216957822604063</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07009438363049721</v>
+        <v>0.07259258677429188</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1979460568970718</v>
+        <v>0.1875795494037763</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>28</v>
@@ -1286,19 +1286,19 @@
         <v>29881</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19740</v>
+        <v>20918</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>42866</v>
+        <v>41675</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1016813218549601</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06717269177909847</v>
+        <v>0.07118260745628115</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1458679173674585</v>
+        <v>0.1418149605290623</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>25799</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17255</v>
+        <v>17369</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>37139</v>
+        <v>37372</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1507129529988089</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1007976141178273</v>
+        <v>0.1014654278643243</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2169602049566456</v>
+        <v>0.2183174207656416</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -1336,19 +1336,19 @@
         <v>10103</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5107</v>
+        <v>4889</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19006</v>
+        <v>19107</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08234962848891293</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04162439203646078</v>
+        <v>0.03984497420602299</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1549117108558756</v>
+        <v>0.1557356800031907</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>33</v>
@@ -1357,19 +1357,19 @@
         <v>35902</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>25225</v>
+        <v>24813</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>49285</v>
+        <v>48808</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1221717409544851</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08583641526936417</v>
+        <v>0.0844361819481398</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1677099080902394</v>
+        <v>0.1660875869418406</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>13651</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7543</v>
+        <v>8018</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21619</v>
+        <v>22180</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07974833706624676</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04406489202710704</v>
+        <v>0.04683693696926269</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1262927310453565</v>
+        <v>0.1295677405425858</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1407,19 +1407,19 @@
         <v>9419</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4297</v>
+        <v>4938</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17113</v>
+        <v>17378</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07677169957600369</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03502317855029321</v>
+        <v>0.04024576986346921</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1394845184601101</v>
+        <v>0.1416419138096986</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -1428,19 +1428,19 @@
         <v>23070</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14640</v>
+        <v>15627</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33033</v>
+        <v>34051</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07850561163711972</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04981719896813591</v>
+        <v>0.05317740196674022</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1124085729663012</v>
+        <v>0.1158708113718034</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>93083</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>78655</v>
+        <v>78631</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>105797</v>
+        <v>106063</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5437690600929252</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.459486636345144</v>
+        <v>0.4593416189780457</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6180423818207504</v>
+        <v>0.6195976774329494</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>57</v>
@@ -1478,19 +1478,19 @@
         <v>64067</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52754</v>
+        <v>52203</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>76418</v>
+        <v>75007</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5221950572623806</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4299872609183159</v>
+        <v>0.4254908196421078</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6228648022133839</v>
+        <v>0.6113605554860453</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>143</v>
@@ -1499,19 +1499,19 @@
         <v>157150</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>139128</v>
+        <v>139161</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>176269</v>
+        <v>174036</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5347620641072007</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4734350037384648</v>
+        <v>0.4735486853944061</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5998224836010319</v>
+        <v>0.5922236277487826</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>12605</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7614</v>
+        <v>6958</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20196</v>
+        <v>20922</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08919229850573995</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05387909193032736</v>
+        <v>0.04923197663741002</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1429058397244583</v>
+        <v>0.1480393776719004</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1624,19 +1624,19 @@
         <v>15263</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9056</v>
+        <v>8997</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23746</v>
+        <v>22961</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1949667693173796</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.115678843467276</v>
+        <v>0.1149220078307649</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3033274498709322</v>
+        <v>0.2933072182438586</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -1645,19 +1645,19 @@
         <v>27868</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20122</v>
+        <v>17715</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38059</v>
+        <v>37599</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1268979200055027</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0916276839328264</v>
+        <v>0.08066808920439211</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1733034032102285</v>
+        <v>0.1712081544339233</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>7545</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2975</v>
+        <v>3705</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15050</v>
+        <v>14274</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05339085293411359</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02105081415331611</v>
+        <v>0.0262180894321474</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1064932097227872</v>
+        <v>0.1010026039658143</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1695,19 +1695,19 @@
         <v>6265</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2142</v>
+        <v>2216</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12625</v>
+        <v>12363</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08002794448032581</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02735845145579325</v>
+        <v>0.02831217247449751</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1612686005230411</v>
+        <v>0.157924672247302</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -1716,19 +1716,19 @@
         <v>13810</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7811</v>
+        <v>7734</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22793</v>
+        <v>23112</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06288622628828107</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03556680963578949</v>
+        <v>0.03521871039359427</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1037915207048779</v>
+        <v>0.105241171031904</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>35660</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26059</v>
+        <v>26077</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>46424</v>
+        <v>45633</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2523258546673479</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.184389671284907</v>
+        <v>0.1845201974243122</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3284933273984667</v>
+        <v>0.3228967126084591</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -1766,19 +1766,19 @@
         <v>22688</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15101</v>
+        <v>15163</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31171</v>
+        <v>31420</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2898105796404981</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1928951960620531</v>
+        <v>0.193692627252485</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3981841400520073</v>
+        <v>0.4013567454823089</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>57</v>
@@ -1787,19 +1787,19 @@
         <v>58347</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>46550</v>
+        <v>46374</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>73068</v>
+        <v>72860</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2656881039985425</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2119696067410984</v>
+        <v>0.2111694480734055</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3327203112705591</v>
+        <v>0.3317745907201444</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>43170</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33046</v>
+        <v>33660</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53513</v>
+        <v>54414</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3054674337935733</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2338284659525726</v>
+        <v>0.238178184201841</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3786538358210774</v>
+        <v>0.3850306416296759</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -1837,19 +1837,19 @@
         <v>12577</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7132</v>
+        <v>7614</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20118</v>
+        <v>20565</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1606532342640242</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09110941832535713</v>
+        <v>0.09726356627685741</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2569926900423061</v>
+        <v>0.2627018673119289</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>57</v>
@@ -1858,19 +1858,19 @@
         <v>55746</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>43085</v>
+        <v>44399</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>69454</v>
+        <v>68656</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2538452478979248</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1961898730946745</v>
+        <v>0.2021763897156952</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3162630676057235</v>
+        <v>0.312629069985419</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>42344</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33382</v>
+        <v>31563</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>53747</v>
+        <v>53277</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2996235600992254</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2362087454015644</v>
+        <v>0.2233384096921648</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3803096554397299</v>
+        <v>0.3769867155944279</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>20</v>
@@ -1908,19 +1908,19 @@
         <v>21492</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14209</v>
+        <v>13869</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30554</v>
+        <v>31417</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2745414722977723</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1815103783550024</v>
+        <v>0.1771608762490916</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3902920273551255</v>
+        <v>0.4013180765841152</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>62</v>
@@ -1929,19 +1929,19 @@
         <v>63836</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>50130</v>
+        <v>51403</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>76372</v>
+        <v>78050</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2906825018097488</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2282704377875167</v>
+        <v>0.2340696944688073</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3477648402015555</v>
+        <v>0.3554079216458901</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>18544</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11138</v>
+        <v>11747</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28547</v>
+        <v>28105</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.129961801584233</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07805971672035179</v>
+        <v>0.08232614796841897</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2000663167028664</v>
+        <v>0.1969642851035565</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -2054,19 +2054,19 @@
         <v>15009</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8662</v>
+        <v>8620</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23536</v>
+        <v>24658</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1489991342799466</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08598618758063546</v>
+        <v>0.08557068230957852</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2336474783169155</v>
+        <v>0.2447806205705818</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>31</v>
@@ -2075,19 +2075,19 @@
         <v>33554</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23600</v>
+        <v>23974</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>46662</v>
+        <v>46424</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1378399324387443</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0969494814738429</v>
+        <v>0.09848415343256477</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.191690832360606</v>
+        <v>0.1907114178065655</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>16722</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9550</v>
+        <v>9965</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25823</v>
+        <v>26626</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1171951599964751</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06692944533431508</v>
+        <v>0.06983434998580197</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1809743397046062</v>
+        <v>0.1865991523901388</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -2125,19 +2125,19 @@
         <v>11680</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6459</v>
+        <v>5960</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>19824</v>
+        <v>19496</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1159459399156383</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06412082050016699</v>
+        <v>0.05916929796598725</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1967918967588992</v>
+        <v>0.1935414738721076</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>26</v>
@@ -2146,19 +2146,19 @@
         <v>28402</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>18632</v>
+        <v>19427</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>40078</v>
+        <v>40184</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1166782010600412</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07653965014582174</v>
+        <v>0.07980722444905573</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1646405905330486</v>
+        <v>0.1650758696554589</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>33408</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>22923</v>
+        <v>24920</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>43839</v>
+        <v>45581</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2341311976516922</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1606478415648646</v>
+        <v>0.1746477112786447</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3072311519197585</v>
+        <v>0.3194453668724249</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>30</v>
@@ -2196,19 +2196,19 @@
         <v>32332</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23636</v>
+        <v>23570</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>42871</v>
+        <v>42723</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3209561646461306</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2346308909998921</v>
+        <v>0.2339773942882516</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4255785954829654</v>
+        <v>0.4241170708530795</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>62</v>
@@ -2217,19 +2217,19 @@
         <v>65740</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>51603</v>
+        <v>53078</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>80841</v>
+        <v>81723</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2700615699550991</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2119886444150084</v>
+        <v>0.2180485860037189</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3320992009516196</v>
+        <v>0.3357220515702055</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>33942</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23224</v>
+        <v>24279</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46216</v>
+        <v>45988</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2378726889635639</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1627580396632904</v>
+        <v>0.1701544432900619</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3238924470664597</v>
+        <v>0.3222968955366369</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -2267,19 +2267,19 @@
         <v>20063</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13351</v>
+        <v>13365</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29540</v>
+        <v>29038</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1991634890046525</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1325373843894948</v>
+        <v>0.1326710518901639</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2932450700938032</v>
+        <v>0.2882627840120273</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>51</v>
@@ -2288,19 +2288,19 @@
         <v>54005</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>41396</v>
+        <v>41952</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>68330</v>
+        <v>69136</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2218538407654437</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1700580268588122</v>
+        <v>0.1723389409277891</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2807027246163332</v>
+        <v>0.2840142350574917</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>40073</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>28266</v>
+        <v>29151</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>52565</v>
+        <v>52452</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2808391518040357</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1980943579988856</v>
+        <v>0.2042963886405475</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.368389159255712</v>
+        <v>0.3675975013845115</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>20</v>
@@ -2338,19 +2338,19 @@
         <v>21652</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13985</v>
+        <v>13989</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>31766</v>
+        <v>31693</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.214935272153632</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1388341477329599</v>
+        <v>0.1388666394154506</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3153412100907339</v>
+        <v>0.314617273928001</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>56</v>
@@ -2359,19 +2359,19 @@
         <v>61724</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>47788</v>
+        <v>48156</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>77498</v>
+        <v>76979</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2535664557806718</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1963152899356335</v>
+        <v>0.1978268231565501</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3183630159467339</v>
+        <v>0.3162345254942727</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>24195</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>15836</v>
+        <v>15276</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>35095</v>
+        <v>33610</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2939334658256507</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1923912848080976</v>
+        <v>0.1855820913457595</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4263582316866054</v>
+        <v>0.4083196808261128</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -2484,19 +2484,19 @@
         <v>15370</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9557</v>
+        <v>9376</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>22475</v>
+        <v>22269</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2807599008235975</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1745824612277154</v>
+        <v>0.1712742149883217</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4105462449290298</v>
+        <v>0.4067909263411878</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>36</v>
@@ -2505,19 +2505,19 @@
         <v>39564</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>30001</v>
+        <v>28254</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>51362</v>
+        <v>51699</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2886716964953515</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2188918698096905</v>
+        <v>0.2061471677076879</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3747525385736606</v>
+        <v>0.3772068612066867</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>13768</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8155</v>
+        <v>8024</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>22218</v>
+        <v>21205</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1672658074926173</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0990748391493641</v>
+        <v>0.09748433740987027</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2699166032490407</v>
+        <v>0.2576097678298046</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>16</v>
@@ -2555,19 +2555,19 @@
         <v>16406</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10510</v>
+        <v>10701</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23667</v>
+        <v>24180</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2996834461988763</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1919864269571268</v>
+        <v>0.1954861392963193</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.432324718134436</v>
+        <v>0.4416915002317117</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>29</v>
@@ -2576,19 +2576,19 @@
         <v>30174</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>20852</v>
+        <v>21356</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>40122</v>
+        <v>40747</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2201558998880041</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1521416750806186</v>
+        <v>0.1558208109280305</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2927405224987291</v>
+        <v>0.2973014790853299</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>19782</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12439</v>
+        <v>12872</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>29295</v>
+        <v>28762</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2403223145654349</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1511107031876102</v>
+        <v>0.1563781119299145</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3558952435998274</v>
+        <v>0.3494165217359254</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>9</v>
@@ -2626,19 +2626,19 @@
         <v>9873</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5135</v>
+        <v>5132</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17718</v>
+        <v>16966</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1803522935888815</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09380596380029026</v>
+        <v>0.09374089651344307</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3236624556936789</v>
+        <v>0.3099292490952408</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>28</v>
@@ -2647,19 +2647,19 @@
         <v>29655</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20916</v>
+        <v>21269</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>41444</v>
+        <v>41614</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2163691616366229</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1526055757505091</v>
+        <v>0.1551812782667705</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3023823002412053</v>
+        <v>0.3036252541011759</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>8659</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3790</v>
+        <v>3853</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>16636</v>
+        <v>16045</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.105194082113306</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04604795330437299</v>
+        <v>0.04680737447458754</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2020992015062568</v>
+        <v>0.1949215850776191</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5812</v>
+        <v>6477</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02184001116118291</v>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1061738276277104</v>
+        <v>0.1183082172295702</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>9</v>
@@ -2718,19 +2718,19 @@
         <v>9855</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4732</v>
+        <v>4840</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>17742</v>
+        <v>17890</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07190090034943998</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03452435953775028</v>
+        <v>0.03531650689540933</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1294487787286123</v>
+        <v>0.1305269261842021</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>15910</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9839</v>
+        <v>9420</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>24189</v>
+        <v>24130</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1932843300029913</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1195274598519008</v>
+        <v>0.1144362645493218</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2938633909248043</v>
+        <v>0.2931453639694255</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>11</v>
@@ -2768,19 +2768,19 @@
         <v>11899</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6321</v>
+        <v>6875</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>19452</v>
+        <v>19245</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2173643482274618</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1154735371357953</v>
+        <v>0.1255806846903731</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3553240125091873</v>
+        <v>0.3515594469389579</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>26</v>
@@ -2789,19 +2789,19 @@
         <v>27809</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>18643</v>
+        <v>19264</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>39077</v>
+        <v>38993</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2029023416305815</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1360238561677587</v>
+        <v>0.1405562194580823</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2851119197491863</v>
+        <v>0.2845033811870273</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>14981</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>8380</v>
+        <v>8496</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>24914</v>
+        <v>24705</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1287726623455282</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07203173711060495</v>
+        <v>0.07302750091806849</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.214155990487587</v>
+        <v>0.2123531963532407</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>9</v>
@@ -2914,19 +2914,19 @@
         <v>8976</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3985</v>
+        <v>4581</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>15323</v>
+        <v>16160</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1681827427349763</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07466047115764697</v>
+        <v>0.08583511658414072</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2871080243134967</v>
+        <v>0.3027990382157193</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>21</v>
@@ -2935,19 +2935,19 @@
         <v>23957</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>15654</v>
+        <v>16064</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>35312</v>
+        <v>35849</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1411662171297365</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09223975387934044</v>
+        <v>0.09465709285866883</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2080775253487616</v>
+        <v>0.2112400679293891</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>7738</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3670</v>
+        <v>3832</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>14013</v>
+        <v>14197</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.06651522965537517</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0315434642032612</v>
+        <v>0.03293654224153433</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1204517433483586</v>
+        <v>0.1220363758520662</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -2985,19 +2985,19 @@
         <v>3930</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1000</v>
+        <v>974</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>9032</v>
+        <v>9020</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07364602364668531</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01873181877211331</v>
+        <v>0.01824947509427956</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1692322727467205</v>
+        <v>0.169018177223615</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>12</v>
@@ -3006,19 +3006,19 @@
         <v>11669</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>6697</v>
+        <v>5894</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>20576</v>
+        <v>19536</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06875769871691678</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0394601496287014</v>
+        <v>0.03473138256872377</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1212437133788599</v>
+        <v>0.1151140445780479</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>24811</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>15999</v>
+        <v>16850</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>34910</v>
+        <v>35389</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2132695765432223</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1375245387807228</v>
+        <v>0.1448335153692211</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3000733854449255</v>
+        <v>0.3041923132868936</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>7</v>
@@ -3056,19 +3056,19 @@
         <v>6633</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2804</v>
+        <v>2887</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>11828</v>
+        <v>11989</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1242912718444946</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.05254562847101324</v>
+        <v>0.05409558705632447</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2216175548678409</v>
+        <v>0.2246483881371368</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>30</v>
@@ -3077,19 +3077,19 @@
         <v>31444</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>22091</v>
+        <v>22043</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>43618</v>
+        <v>43509</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1852879666862447</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1301702544196329</v>
+        <v>0.1298884882903509</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2570229757082233</v>
+        <v>0.2563790118278862</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>22219</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>14208</v>
+        <v>14461</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>33156</v>
+        <v>32521</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1909892283565771</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1221293105685979</v>
+        <v>0.1243041231941639</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2850000701776521</v>
+        <v>0.2795375601859761</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>11</v>
@@ -3127,19 +3127,19 @@
         <v>11371</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6333</v>
+        <v>6046</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>18427</v>
+        <v>18387</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2130580665240549</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.118670550267054</v>
+        <v>0.1132862269553356</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3452759719772262</v>
+        <v>0.3445215887223207</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>30</v>
@@ -3148,19 +3148,19 @@
         <v>33590</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>23802</v>
+        <v>24550</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>46293</v>
+        <v>46594</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1979293652999591</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1402533236623446</v>
+        <v>0.1446603750060586</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2727842124009591</v>
+        <v>0.2745574063134412</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>46588</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>37133</v>
+        <v>35847</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>58051</v>
+        <v>57140</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4004533030992973</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3191833061963034</v>
+        <v>0.3081305933275428</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4989847913875047</v>
+        <v>0.4911530281473382</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>19</v>
@@ -3198,19 +3198,19 @@
         <v>22459</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>14953</v>
+        <v>14976</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>30888</v>
+        <v>30368</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4208218952497889</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2801727125517137</v>
+        <v>0.2806151728885042</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5787588116257395</v>
+        <v>0.5690105016449529</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>64</v>
@@ -3219,19 +3219,19 @@
         <v>69046</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>55425</v>
+        <v>55188</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>83534</v>
+        <v>82260</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.406858752167143</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3265927722892932</v>
+        <v>0.3251997243511004</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4922258904688467</v>
+        <v>0.4847200855325807</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>50545</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>39358</v>
+        <v>37294</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>65265</v>
+        <v>65572</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1879058736786141</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1463166264628803</v>
+        <v>0.1386437061118413</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2426322728119728</v>
+        <v>0.2437705170699397</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>43</v>
@@ -3344,19 +3344,19 @@
         <v>46319</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>35102</v>
+        <v>34697</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>57461</v>
+        <v>59629</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2585635632553517</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1959497695060058</v>
+        <v>0.1936871051803551</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3207616818499847</v>
+        <v>0.3328647754686171</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>89</v>
@@ -3365,19 +3365,19 @@
         <v>96863</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>80267</v>
+        <v>79737</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>114967</v>
+        <v>116876</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2161512156293816</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1791164166446422</v>
+        <v>0.1779329291900145</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2565501639194399</v>
+        <v>0.2608090300088657</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>20880</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>12867</v>
+        <v>13297</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>31613</v>
+        <v>31279</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.07762389593248706</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04783616339103104</v>
+        <v>0.04943492402419597</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1175248561826472</v>
+        <v>0.1162824399200402</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>14</v>
@@ -3415,19 +3415,19 @@
         <v>13833</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>8159</v>
+        <v>7941</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>22346</v>
+        <v>22607</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.07722165863124482</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.04554441961528601</v>
+        <v>0.04433119178892812</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1247398251200367</v>
+        <v>0.1261978247325247</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>34</v>
@@ -3436,19 +3436,19 @@
         <v>34713</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>24599</v>
+        <v>23691</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>46979</v>
+        <v>47728</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.07746310196672057</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.05489365763298474</v>
+        <v>0.05286694764107187</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1048345397856006</v>
+        <v>0.1065057841114244</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>63831</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>51407</v>
+        <v>49029</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>80143</v>
+        <v>78619</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2373002928889626</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1911127458160168</v>
+        <v>0.182272793316139</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2979398327359565</v>
+        <v>0.2922764818786494</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>36</v>
@@ -3486,19 +3486,19 @@
         <v>38616</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>27526</v>
+        <v>28307</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>51438</v>
+        <v>51674</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2155656119102392</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1536582776964462</v>
+        <v>0.1580172416006237</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2871378498928203</v>
+        <v>0.2884580566743035</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>99</v>
@@ -3507,19 +3507,19 @@
         <v>102447</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>85647</v>
+        <v>84109</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>123054</v>
+        <v>119914</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2286118755332245</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1911214562567788</v>
+        <v>0.1876905965416745</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2745966650458339</v>
+        <v>0.2675894600093643</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>58036</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>44378</v>
+        <v>44301</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>73669</v>
+        <v>74302</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2157574770943654</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1649807879177322</v>
+        <v>0.1646948555729719</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2738747314534082</v>
+        <v>0.2762279087186783</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>27</v>
@@ -3557,19 +3557,19 @@
         <v>29498</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>20097</v>
+        <v>20093</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>41658</v>
+        <v>41327</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1646648926162993</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1121880280135345</v>
+        <v>0.112165144594958</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2325453482516503</v>
+        <v>0.2306988023127653</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>79</v>
@@ -3578,19 +3578,19 @@
         <v>87534</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>71377</v>
+        <v>70911</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>105628</v>
+        <v>106619</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1953332666740099</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1592783938224271</v>
+        <v>0.1582377111268232</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2357095768198144</v>
+        <v>0.237920171366228</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>75697</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>61106</v>
+        <v>61156</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>92016</v>
+        <v>93496</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2814124604055708</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2271693755377813</v>
+        <v>0.2273533017649035</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3420812545703081</v>
+        <v>0.3475820027422855</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>48</v>
@@ -3628,19 +3628,19 @@
         <v>50873</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>38679</v>
+        <v>39479</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>63088</v>
+        <v>63944</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.283984273586865</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2159145359201385</v>
+        <v>0.220381560670291</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3521706833999689</v>
+        <v>0.3569530745306351</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>117</v>
@@ -3649,19 +3649,19 @@
         <v>126570</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>107836</v>
+        <v>107710</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>146635</v>
+        <v>147351</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2824405401966635</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2406359225539856</v>
+        <v>0.240355558706611</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3272178305603664</v>
+        <v>0.3288139298874491</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>29778</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>19945</v>
+        <v>19135</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>42716</v>
+        <v>42129</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.08266230728283788</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.05536802940503033</v>
+        <v>0.05311733406685616</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1185784301717969</v>
+        <v>0.1169509486989623</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>22</v>
@@ -3774,19 +3774,19 @@
         <v>25703</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>16492</v>
+        <v>17052</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>38502</v>
+        <v>39468</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.09976505309709405</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.06401397183622178</v>
+        <v>0.06618577583495519</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1494404825630309</v>
+        <v>0.1531924859195919</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>48</v>
@@ -3795,19 +3795,19 @@
         <v>55481</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>41626</v>
+        <v>40164</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>74002</v>
+        <v>72579</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.08979378908044319</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.06736927017593573</v>
+        <v>0.06500302079735408</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1197694905596058</v>
+        <v>0.1174655229385128</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>29461</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>19852</v>
+        <v>19203</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>42754</v>
+        <v>41187</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.08178312366228836</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.05510758266119638</v>
+        <v>0.05330605139322899</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1186853672679762</v>
+        <v>0.1143340647168626</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>18</v>
@@ -3845,19 +3845,19 @@
         <v>18937</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>11779</v>
+        <v>11707</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>28280</v>
+        <v>28645</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.07350222252584358</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.04571771644987677</v>
+        <v>0.04543800597017547</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1097654433403809</v>
+        <v>0.1111838630403193</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>44</v>
@@ -3866,19 +3866,19 @@
         <v>48398</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>35055</v>
+        <v>35949</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>62862</v>
+        <v>64117</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.07833016374791607</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.05673497847255207</v>
+        <v>0.05818212689108893</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1017397112176529</v>
+        <v>0.1037711050598965</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>88586</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>73357</v>
+        <v>71579</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>105928</v>
+        <v>106421</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2459129329226008</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2036374355783868</v>
+        <v>0.1987012277726132</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.294055057064025</v>
+        <v>0.2954242493699024</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>53</v>
@@ -3916,19 +3916,19 @@
         <v>58768</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>45778</v>
+        <v>45035</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>74993</v>
+        <v>71983</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2281007092384057</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1776823773381439</v>
+        <v>0.1747990655090542</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2910767202512905</v>
+        <v>0.2793942456841561</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>136</v>
@@ -3937,19 +3937,19 @@
         <v>147354</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>125696</v>
+        <v>126699</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>170695</v>
+        <v>170217</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2384856139202435</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2034339623095562</v>
+        <v>0.2050575778616651</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2762633981175195</v>
+        <v>0.2754891676918355</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>107871</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>91788</v>
+        <v>91516</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>125022</v>
+        <v>126058</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2994497238108463</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2548024716245615</v>
+        <v>0.2540472892037824</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3470586938030612</v>
+        <v>0.3499351653144654</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>82</v>
@@ -3987,19 +3987,19 @@
         <v>90595</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>74011</v>
+        <v>75272</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>107317</v>
+        <v>107609</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3516348373716004</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2872647594820883</v>
+        <v>0.2921607406424025</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4165406554182808</v>
+        <v>0.4176743455964733</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>186</v>
@@ -4008,19 +4008,19 @@
         <v>198467</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>175325</v>
+        <v>174243</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>224328</v>
+        <v>222513</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.321209807922853</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2837556014417609</v>
+        <v>0.2820051897104426</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3630659453676993</v>
+        <v>0.3601282315182457</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>104536</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>87439</v>
+        <v>88224</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>122844</v>
+        <v>124116</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2901919123214266</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2427289038450835</v>
+        <v>0.2449092841631837</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3410125597018435</v>
+        <v>0.3445447801753501</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>58</v>
@@ -4058,19 +4058,19 @@
         <v>63636</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>49064</v>
+        <v>50257</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>79398</v>
+        <v>79378</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2469971777670563</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1904384500426194</v>
+        <v>0.1950676507077087</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3081744398183436</v>
+        <v>0.308098211579351</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>154</v>
@@ -4079,19 +4079,19 @@
         <v>168173</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>146627</v>
+        <v>144989</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>192694</v>
+        <v>190087</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2721806253285443</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2373098529207949</v>
+        <v>0.2346582318862451</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3118670206059233</v>
+        <v>0.3076486420914697</v>
       </c>
     </row>
     <row r="51">
@@ -4183,19 +4183,19 @@
         <v>215746</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>188745</v>
+        <v>187336</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>247306</v>
+        <v>249949</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.15315818042492</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1339902384819018</v>
+        <v>0.1329898121110396</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1755629212916059</v>
+        <v>0.1774390294407024</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>168</v>
@@ -4204,19 +4204,19 @@
         <v>180848</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>157616</v>
+        <v>156234</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>205588</v>
+        <v>207452</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1938597274390222</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1689562982404497</v>
+        <v>0.1674746139904257</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2203804227857263</v>
+        <v>0.2223781125896225</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>362</v>
@@ -4225,19 +4225,19 @@
         <v>396594</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>360544</v>
+        <v>362563</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>437090</v>
+        <v>434239</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1693739559693343</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1539782847423258</v>
+        <v>0.154840501394371</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1866690047602472</v>
+        <v>0.185451138872802</v>
       </c>
     </row>
     <row r="53">
@@ -4254,19 +4254,19 @@
         <v>118763</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>97256</v>
+        <v>98639</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>140788</v>
+        <v>142669</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.08431011434494458</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.06904241070443373</v>
+        <v>0.07002385543446756</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.09994550130185921</v>
+        <v>0.1012812470785872</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>85</v>
@@ -4275,19 +4275,19 @@
         <v>87947</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>71438</v>
+        <v>71349</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>106208</v>
+        <v>108558</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.09427443388356095</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.07657774764925117</v>
+        <v>0.07648252773478131</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1138495585103951</v>
+        <v>0.1163682602077485</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>195</v>
@@ -4296,19 +4296,19 @@
         <v>206710</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>180329</v>
+        <v>176899</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>234805</v>
+        <v>234700</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.08827996760470007</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.07701343793187457</v>
+        <v>0.07554872545549392</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1002785203245691</v>
+        <v>0.1002338307637813</v>
       </c>
     </row>
     <row r="54">
@@ -4325,19 +4325,19 @@
         <v>315768</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>285596</v>
+        <v>284779</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>351180</v>
+        <v>349400</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2241641847812721</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2027450836705187</v>
+        <v>0.202165057603042</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2493035496994448</v>
+        <v>0.2480398524791573</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>182</v>
@@ -4346,19 +4346,19 @@
         <v>197898</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>172827</v>
+        <v>174873</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>225300</v>
+        <v>227227</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2121370902987804</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1852622879471943</v>
+        <v>0.1874549136950452</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.241509635264945</v>
+        <v>0.2435763110666559</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>485</v>
@@ -4367,19 +4367,19 @@
         <v>513666</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>472649</v>
+        <v>468880</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>554008</v>
+        <v>556897</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2193725078331704</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2018552462866929</v>
+        <v>0.2002453463588778</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2366013752712651</v>
+        <v>0.2378348711488343</v>
       </c>
     </row>
     <row r="55">
@@ -4396,19 +4396,19 @@
         <v>297967</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>262625</v>
+        <v>266291</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>327433</v>
+        <v>331059</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2115273758258906</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1864382156088052</v>
+        <v>0.1890401075849519</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2324449499425462</v>
+        <v>0.235019089072518</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>169</v>
@@ -4417,19 +4417,19 @@
         <v>182593</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>156858</v>
+        <v>158911</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>206806</v>
+        <v>208608</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1957299883723649</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1681439733403884</v>
+        <v>0.1703446569508818</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.221685953755368</v>
+        <v>0.2236174077864126</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>453</v>
@@ -4438,19 +4438,19 @@
         <v>480560</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>439498</v>
+        <v>440792</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>519150</v>
+        <v>520097</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.205233588293791</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1876972768613834</v>
+        <v>0.1882498977708522</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2217144458438945</v>
+        <v>0.2221186902763645</v>
       </c>
     </row>
     <row r="56">
@@ -4467,19 +4467,19 @@
         <v>460402</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>425303</v>
+        <v>424218</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>500275</v>
+        <v>498594</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.3268401446229727</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3019231388439064</v>
+        <v>0.3011532015626841</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.3551462966005015</v>
+        <v>0.353952688459733</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>257</v>
@@ -4488,19 +4488,19 @@
         <v>283594</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>255005</v>
+        <v>257672</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>314408</v>
+        <v>312502</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.3039987600062716</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2733524739519005</v>
+        <v>0.2762117397747411</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.3370290750920685</v>
+        <v>0.3349863885743609</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>688</v>
@@ -4509,19 +4509,19 @@
         <v>743996</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>701854</v>
+        <v>697708</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>790111</v>
+        <v>792921</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.3177399802990041</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.299742232929421</v>
+        <v>0.2979714175041458</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.3374341879493486</v>
+        <v>0.3386341554918751</v>
       </c>
     </row>
     <row r="57">
@@ -4857,19 +4857,19 @@
         <v>51890</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40003</v>
+        <v>39059</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64003</v>
+        <v>64164</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3900013114480794</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3006603289892505</v>
+        <v>0.293567281241391</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.481037815130587</v>
+        <v>0.4822475823752626</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -4878,19 +4878,19 @@
         <v>47543</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37141</v>
+        <v>37220</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57547</v>
+        <v>57615</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4751002071238374</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3711506349857441</v>
+        <v>0.371941779226628</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.575066790536742</v>
+        <v>0.5757479976001558</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -4899,19 +4899,19 @@
         <v>99433</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>84040</v>
+        <v>83870</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>117116</v>
+        <v>115643</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4265310093226034</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3604994187185593</v>
+        <v>0.35977073258463</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5023836954268563</v>
+        <v>0.4960656912185217</v>
       </c>
     </row>
     <row r="5">
@@ -4928,19 +4928,19 @@
         <v>14818</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8368</v>
+        <v>8060</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23243</v>
+        <v>22897</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1113737607837369</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06289386763264872</v>
+        <v>0.06058080077163842</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1746900521693367</v>
+        <v>0.1720906167977024</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -4949,19 +4949,19 @@
         <v>10035</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5457</v>
+        <v>4700</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17533</v>
+        <v>17034</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1002843734893279</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05453456973832509</v>
+        <v>0.04696345794408081</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1752024273488732</v>
+        <v>0.1702247103325945</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -4970,19 +4970,19 @@
         <v>24854</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16025</v>
+        <v>17068</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36290</v>
+        <v>36323</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1066135113790699</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06874045227765614</v>
+        <v>0.07321690662463773</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1556695829757878</v>
+        <v>0.1558126019184715</v>
       </c>
     </row>
     <row r="6">
@@ -4999,19 +4999,19 @@
         <v>29752</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20921</v>
+        <v>20851</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>41234</v>
+        <v>41401</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2236104667253674</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1572406502500522</v>
+        <v>0.1567174658707007</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3099095658473085</v>
+        <v>0.3111656412805254</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -5020,19 +5020,19 @@
         <v>13020</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6682</v>
+        <v>7357</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19316</v>
+        <v>20951</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1301063883066924</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06676851133647403</v>
+        <v>0.07352162144444703</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1930222664753919</v>
+        <v>0.2093625320664234</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>41</v>
@@ -5041,19 +5041,19 @@
         <v>42771</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>31008</v>
+        <v>30864</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>56687</v>
+        <v>55305</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1834727456944819</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1330121531723843</v>
+        <v>0.1323950909372077</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2431657889286312</v>
+        <v>0.2372395247188511</v>
       </c>
     </row>
     <row r="7">
@@ -5070,19 +5070,19 @@
         <v>14663</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8356</v>
+        <v>8149</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23869</v>
+        <v>23728</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1102026450757665</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06280374619122388</v>
+        <v>0.06124790640957874</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1794004133166829</v>
+        <v>0.1783374163895327</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -5091,19 +5091,19 @@
         <v>7856</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3818</v>
+        <v>3763</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15128</v>
+        <v>14706</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0785013525328131</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0381483619344482</v>
+        <v>0.03759915314359044</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1511769901960549</v>
+        <v>0.146957447976964</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -5112,19 +5112,19 @@
         <v>22518</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13830</v>
+        <v>14567</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32845</v>
+        <v>33638</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09659449388143931</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05932537448842317</v>
+        <v>0.06248622613811931</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1408933158601915</v>
+        <v>0.1442936911106377</v>
       </c>
     </row>
     <row r="8">
@@ -5141,19 +5141,19 @@
         <v>21928</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14204</v>
+        <v>14554</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>32045</v>
+        <v>31899</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1648118159670498</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1067592653852831</v>
+        <v>0.1093838517797542</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2408494060727073</v>
+        <v>0.2397508363423717</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -5162,19 +5162,19 @@
         <v>21616</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14230</v>
+        <v>14018</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31412</v>
+        <v>31162</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2160076785473292</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1421965648710163</v>
+        <v>0.1400808676894235</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.313905082045694</v>
+        <v>0.3114059499495924</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -5183,19 +5183,19 @@
         <v>43544</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>31534</v>
+        <v>30839</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>56162</v>
+        <v>56913</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1867882397224054</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1352704926651996</v>
+        <v>0.1322891473613073</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2409144472111474</v>
+        <v>0.2441351806624168</v>
       </c>
     </row>
     <row r="9">
@@ -5287,19 +5287,19 @@
         <v>40047</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29699</v>
+        <v>29259</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53163</v>
+        <v>51052</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2351581213586215</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1743973410140028</v>
+        <v>0.1718135775701783</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.312176634917318</v>
+        <v>0.2997797533208053</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -5308,19 +5308,19 @@
         <v>26763</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18841</v>
+        <v>19295</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36766</v>
+        <v>37064</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2354200807492864</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1657392621786609</v>
+        <v>0.1697280273277631</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3234188491643183</v>
+        <v>0.3260373078847467</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -5329,19 +5329,19 @@
         <v>66809</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54556</v>
+        <v>52081</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84192</v>
+        <v>82470</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2352629875847524</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1921153053783921</v>
+        <v>0.183397051952963</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2964764313818787</v>
+        <v>0.2904115303953558</v>
       </c>
     </row>
     <row r="11">
@@ -5358,19 +5358,19 @@
         <v>15883</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9281</v>
+        <v>9510</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24769</v>
+        <v>24965</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09326894323838564</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05450069312172427</v>
+        <v>0.05584136793519787</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.145443601105251</v>
+        <v>0.1465986917056591</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -5379,19 +5379,19 @@
         <v>11677</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6072</v>
+        <v>6288</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18637</v>
+        <v>19230</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1027201692012102</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05341389521960332</v>
+        <v>0.05531142052471316</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1639382918364907</v>
+        <v>0.1691633952608586</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>26</v>
@@ -5400,19 +5400,19 @@
         <v>27561</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18927</v>
+        <v>18488</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>39644</v>
+        <v>39050</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09705240905160017</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06664845447598815</v>
+        <v>0.06510347034882483</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1396031521481874</v>
+        <v>0.1375128067918987</v>
       </c>
     </row>
     <row r="12">
@@ -5429,19 +5429,19 @@
         <v>34863</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25416</v>
+        <v>25043</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>46552</v>
+        <v>47295</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2047162266770708</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1492442065076079</v>
+        <v>0.1470573315664067</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2733581005581582</v>
+        <v>0.277722803890151</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -5450,19 +5450,19 @@
         <v>17585</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11163</v>
+        <v>11133</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26139</v>
+        <v>25790</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1546879907513974</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09819657076823354</v>
+        <v>0.09793218184198761</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2299349403136432</v>
+        <v>0.2268623387785711</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>48</v>
@@ -5471,19 +5471,19 @@
         <v>52447</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>40275</v>
+        <v>38794</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>65723</v>
+        <v>66128</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1846891824539477</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1418244319820741</v>
+        <v>0.1366091340816333</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2314379191907242</v>
+        <v>0.2328629670361367</v>
       </c>
     </row>
     <row r="13">
@@ -5500,19 +5500,19 @@
         <v>30343</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21130</v>
+        <v>20377</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41324</v>
+        <v>40949</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1781765450388018</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.124078682979119</v>
+        <v>0.1196561659955718</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.242659192434794</v>
+        <v>0.2404544501654798</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -5521,19 +5521,19 @@
         <v>15835</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9236</v>
+        <v>9254</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24038</v>
+        <v>24324</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1392933199044105</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08124629764688041</v>
+        <v>0.08140606683506645</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2114494744373679</v>
+        <v>0.2139701754651179</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -5542,19 +5542,19 @@
         <v>46178</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34733</v>
+        <v>35047</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>60038</v>
+        <v>60703</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1626110137963843</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1223074997776851</v>
+        <v>0.1234132086594216</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2114189072775652</v>
+        <v>0.2137615135774665</v>
       </c>
     </row>
     <row r="14">
@@ -5571,19 +5571,19 @@
         <v>49161</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>38617</v>
+        <v>37125</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>63455</v>
+        <v>62317</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2886801636871202</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2267644799713427</v>
+        <v>0.2180027845612602</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3726152217044757</v>
+        <v>0.3659319633052242</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>40</v>
@@ -5592,19 +5592,19 @@
         <v>41820</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>32067</v>
+        <v>31941</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>52807</v>
+        <v>52312</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3678784393936954</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2820783636336498</v>
+        <v>0.2809755125103063</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4645217876516861</v>
+        <v>0.4601714053497872</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>85</v>
@@ -5613,19 +5613,19 @@
         <v>90982</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>75599</v>
+        <v>75371</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>106805</v>
+        <v>108678</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3203844071133155</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.266214622117929</v>
+        <v>0.2654123896340265</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3761039195345076</v>
+        <v>0.3827003148870743</v>
       </c>
     </row>
     <row r="15">
@@ -5717,19 +5717,19 @@
         <v>33957</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25224</v>
+        <v>25221</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45117</v>
+        <v>44780</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2703788509078842</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2008445047160921</v>
+        <v>0.2008221385183642</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3592412937098942</v>
+        <v>0.3565599746925011</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -5738,19 +5738,19 @@
         <v>19653</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12739</v>
+        <v>12533</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28188</v>
+        <v>27725</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2330397624411047</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1510579866066389</v>
+        <v>0.1486083867221497</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3342485203333688</v>
+        <v>0.3287507238361886</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>55</v>
@@ -5759,19 +5759,19 @@
         <v>53610</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42749</v>
+        <v>42053</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>65698</v>
+        <v>64960</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.255378393075319</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.203641174016065</v>
+        <v>0.2003263052933918</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3129656337317089</v>
+        <v>0.3094489948854026</v>
       </c>
     </row>
     <row r="17">
@@ -5788,19 +5788,19 @@
         <v>27959</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20103</v>
+        <v>20258</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38351</v>
+        <v>37934</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2226217890474134</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1600677683010684</v>
+        <v>0.1613024165068329</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.305365690355793</v>
+        <v>0.3020454644352429</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -5809,19 +5809,19 @@
         <v>11671</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6506</v>
+        <v>6380</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19914</v>
+        <v>18734</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1383936770879572</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07715013519451029</v>
+        <v>0.07565779875709844</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.236135474738932</v>
+        <v>0.2221419393720992</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>42</v>
@@ -5830,19 +5830,19 @@
         <v>39630</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29210</v>
+        <v>28946</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50988</v>
+        <v>50931</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1887843202273457</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1391466526645517</v>
+        <v>0.1378907919596395</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2428920818663866</v>
+        <v>0.2426203189270954</v>
       </c>
     </row>
     <row r="18">
@@ -5859,19 +5859,19 @@
         <v>29077</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20780</v>
+        <v>20701</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>39696</v>
+        <v>39199</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2315229749873124</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1654604780150667</v>
+        <v>0.1648309599973816</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3160808197996913</v>
+        <v>0.3121174617219808</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>30</v>
@@ -5880,19 +5880,19 @@
         <v>29935</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21620</v>
+        <v>21769</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>39745</v>
+        <v>38932</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3549582084417576</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2563664842060658</v>
+        <v>0.2581339894241652</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4712833415009212</v>
+        <v>0.4616453156831258</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>60</v>
@@ -5901,19 +5901,19 @@
         <v>59011</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>45978</v>
+        <v>46597</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>71037</v>
+        <v>72427</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2811113578460314</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2190222781316859</v>
+        <v>0.2219752399413318</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.338397447533529</v>
+        <v>0.3450190567098346</v>
       </c>
     </row>
     <row r="19">
@@ -5930,19 +5930,19 @@
         <v>22592</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14672</v>
+        <v>15529</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31544</v>
+        <v>32338</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1798851218801951</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.116822693891797</v>
+        <v>0.1236511440798053</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2511710129656028</v>
+        <v>0.2574911796523143</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -5951,19 +5951,19 @@
         <v>14665</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8595</v>
+        <v>8767</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22122</v>
+        <v>22664</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1738934058926363</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1019230376059625</v>
+        <v>0.1039595742096927</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2623151386106012</v>
+        <v>0.2687405497818701</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -5972,19 +5972,19 @@
         <v>37257</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27284</v>
+        <v>28310</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>49220</v>
+        <v>48211</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1774780335792569</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1299712391070467</v>
+        <v>0.1348617552500153</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2344676751316644</v>
+        <v>0.2296630455803035</v>
       </c>
     </row>
     <row r="20">
@@ -6001,19 +6001,19 @@
         <v>12005</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6525</v>
+        <v>6482</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18676</v>
+        <v>19147</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09559126317719503</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05195344953397477</v>
+        <v>0.05160913211427927</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1487081179437123</v>
+        <v>0.1524597150535779</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -6022,19 +6022,19 @@
         <v>8409</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3963</v>
+        <v>3563</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15716</v>
+        <v>15464</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09971494613654426</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04699598131312848</v>
+        <v>0.04224834244544158</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.186358325193942</v>
+        <v>0.1833699708876005</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -6043,19 +6043,19 @@
         <v>20414</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>12996</v>
+        <v>13339</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30736</v>
+        <v>30188</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09724789527204705</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06190825943546048</v>
+        <v>0.06354138437846751</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1464167162965171</v>
+        <v>0.1438060841121908</v>
       </c>
     </row>
     <row r="21">
@@ -6147,19 +6147,19 @@
         <v>27117</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19037</v>
+        <v>18670</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>36821</v>
+        <v>36647</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2417288610709906</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1696985890166223</v>
+        <v>0.1664311157924645</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3282344054069399</v>
+        <v>0.3266815591572682</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -6168,19 +6168,19 @@
         <v>20227</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13080</v>
+        <v>13042</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29224</v>
+        <v>29313</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2470961786401075</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1597813144306053</v>
+        <v>0.1593242541048059</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3570007200054649</v>
+        <v>0.3580956612896822</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>45</v>
@@ -6189,19 +6189,19 @@
         <v>47344</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>35934</v>
+        <v>36198</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>60143</v>
+        <v>60847</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2439931599146147</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1851917745141076</v>
+        <v>0.18654946322749</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.309953472280513</v>
+        <v>0.3135819233149784</v>
       </c>
     </row>
     <row r="23">
@@ -6218,19 +6218,19 @@
         <v>11562</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5698</v>
+        <v>5993</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20127</v>
+        <v>20125</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1030707468296204</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05079704213071264</v>
+        <v>0.05341984577724695</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1794211372901702</v>
+        <v>0.1793969960990855</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -6239,19 +6239,19 @@
         <v>7944</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3486</v>
+        <v>3417</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15594</v>
+        <v>15580</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09704800471804043</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04258596206047477</v>
+        <v>0.04173982460671795</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1905039307452907</v>
+        <v>0.1903274292233006</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>17</v>
@@ -6260,19 +6260,19 @@
         <v>19507</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>11960</v>
+        <v>12274</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>30760</v>
+        <v>30303</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1005299454287187</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06163584497500756</v>
+        <v>0.06325311728395608</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1585254885677455</v>
+        <v>0.15616915758848</v>
       </c>
     </row>
     <row r="24">
@@ -6289,19 +6289,19 @@
         <v>14239</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8129</v>
+        <v>7860</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23280</v>
+        <v>22952</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.126927514698036</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07246482753153867</v>
+        <v>0.07006879665540396</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2075248771788201</v>
+        <v>0.2046002240776384</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -6310,19 +6310,19 @@
         <v>13666</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7996</v>
+        <v>7408</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>21646</v>
+        <v>21268</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1669419707911433</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09767805318256063</v>
+        <v>0.09050038802707779</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2644261072805956</v>
+        <v>0.2598090374064427</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>26</v>
@@ -6331,19 +6331,19 @@
         <v>27904</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>18769</v>
+        <v>19197</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>38449</v>
+        <v>38046</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1438083281571095</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09672733179269047</v>
+        <v>0.09893383894969969</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1981494276077323</v>
+        <v>0.1960719634156111</v>
       </c>
     </row>
     <row r="25">
@@ -6360,19 +6360,19 @@
         <v>15106</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7763</v>
+        <v>8481</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23753</v>
+        <v>24192</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1346625365131751</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06920131665908534</v>
+        <v>0.07560602804072401</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2117363011498126</v>
+        <v>0.2156498706242278</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -6381,19 +6381,19 @@
         <v>14151</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8395</v>
+        <v>8153</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21970</v>
+        <v>21947</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.172868134320994</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1025508081386829</v>
+        <v>0.09960119599353374</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2683867464354587</v>
+        <v>0.26810938459116</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>28</v>
@@ -6402,19 +6402,19 @@
         <v>29257</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20524</v>
+        <v>20794</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>40887</v>
+        <v>40822</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1507802507758781</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1057729039037936</v>
+        <v>0.1071624814089098</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2107148743576484</v>
+        <v>0.2103816834067896</v>
       </c>
     </row>
     <row r="26">
@@ -6431,19 +6431,19 @@
         <v>44155</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>33604</v>
+        <v>34319</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>55014</v>
+        <v>56092</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3936103408881779</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2995568628772353</v>
+        <v>0.3059284885662005</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4904051332828376</v>
+        <v>0.5000180189025786</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>26</v>
@@ -6452,19 +6452,19 @@
         <v>25871</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17667</v>
+        <v>18010</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>34862</v>
+        <v>35216</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3160457115297147</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2158230870272536</v>
+        <v>0.2200105792459796</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4258734053906812</v>
+        <v>0.4301992476299296</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>67</v>
@@ -6473,19 +6473,19 @@
         <v>70026</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>57824</v>
+        <v>56253</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>83452</v>
+        <v>84495</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.360888315723679</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2980006520790465</v>
+        <v>0.2899068892472938</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4300798584834691</v>
+        <v>0.4354523992621777</v>
       </c>
     </row>
     <row r="27">
@@ -6577,19 +6577,19 @@
         <v>5533</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1946</v>
+        <v>1978</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>12517</v>
+        <v>12974</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0683709000470519</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02404843774661888</v>
+        <v>0.02444027071155243</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1546585520882788</v>
+        <v>0.1603143100734161</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -6598,19 +6598,19 @@
         <v>6912</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2717</v>
+        <v>2882</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12794</v>
+        <v>13694</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1247316498654676</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04902779397117305</v>
+        <v>0.05200607967462471</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2308584891624326</v>
+        <v>0.2471057219116575</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>12</v>
@@ -6619,19 +6619,19 @@
         <v>12446</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6654</v>
+        <v>6843</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>21118</v>
+        <v>21553</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09127857301819561</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04880087418265222</v>
+        <v>0.05018711252611278</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1548805913153366</v>
+        <v>0.1580749085968006</v>
       </c>
     </row>
     <row r="29">
@@ -6648,19 +6648,19 @@
         <v>16515</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10365</v>
+        <v>9871</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>24646</v>
+        <v>24992</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2040665419141201</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1280785313180762</v>
+        <v>0.1219696243017811</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3045314368265508</v>
+        <v>0.3088110479324301</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -6669,19 +6669,19 @@
         <v>8332</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3944</v>
+        <v>3965</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>14286</v>
+        <v>14031</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1503463282911109</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07116599631113529</v>
+        <v>0.07153981918298184</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2577879101076951</v>
+        <v>0.2531879096801901</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>25</v>
@@ -6690,19 +6690,19 @@
         <v>24847</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>16409</v>
+        <v>16429</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>33907</v>
+        <v>34361</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1822321076743226</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1203444563279843</v>
+        <v>0.1204933250424535</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2486816741683076</v>
+        <v>0.2520088775400546</v>
       </c>
     </row>
     <row r="30">
@@ -6719,19 +6719,19 @@
         <v>26091</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17978</v>
+        <v>17934</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>35592</v>
+        <v>34928</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3223928074877302</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2221380192302457</v>
+        <v>0.2215996178356315</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4397820735311848</v>
+        <v>0.4315887166172815</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>19</v>
@@ -6740,19 +6740,19 @@
         <v>17331</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>11979</v>
+        <v>10958</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>24989</v>
+        <v>24443</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3127297910235229</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2161583650933215</v>
+        <v>0.197740602812869</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4509247033295262</v>
+        <v>0.4410597715509467</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>44</v>
@@ -6761,19 +6761,19 @@
         <v>43422</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>33947</v>
+        <v>33144</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>54908</v>
+        <v>54092</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3184653008134931</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2489757447944248</v>
+        <v>0.2430840566576462</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4027055010140261</v>
+        <v>0.3967197749426211</v>
       </c>
     </row>
     <row r="31">
@@ -6790,19 +6790,19 @@
         <v>28863</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20061</v>
+        <v>20322</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>37375</v>
+        <v>37160</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3566356066487963</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2478827195271729</v>
+        <v>0.2511059524772138</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4618241882034635</v>
+        <v>0.4591578829322576</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>21</v>
@@ -6811,19 +6811,19 @@
         <v>20297</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12899</v>
+        <v>13991</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>26955</v>
+        <v>27868</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3662607779217371</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2327620837405853</v>
+        <v>0.2524557761182368</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4863934010257306</v>
+        <v>0.5028698491013954</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>50</v>
@@ -6832,19 +6832,19 @@
         <v>49160</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>38329</v>
+        <v>38999</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>60679</v>
+        <v>60688</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.360547731248312</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.281112603900091</v>
+        <v>0.2860254204116546</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4450306917529598</v>
+        <v>0.4450957597652354</v>
       </c>
     </row>
     <row r="32">
@@ -6861,19 +6861,19 @@
         <v>3928</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>981</v>
+        <v>989</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8943</v>
+        <v>9835</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04853414390230137</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0121264182874199</v>
+        <v>0.01221514061332627</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1105018270131448</v>
+        <v>0.1215270522700096</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -6882,19 +6882,19 @@
         <v>2545</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6874</v>
+        <v>6789</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04593145289816163</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01442283902856156</v>
+        <v>0.0146874420663005</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1240388979341458</v>
+        <v>0.122507084580706</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -6903,19 +6903,19 @@
         <v>6473</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2804</v>
+        <v>2766</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12525</v>
+        <v>12804</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04747628724567667</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0205625603143985</v>
+        <v>0.02028573546652</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09186089014254938</v>
+        <v>0.09390363640716159</v>
       </c>
     </row>
     <row r="33">
@@ -7010,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5830</v>
+        <v>6215</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01731761155120917</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05422729712468707</v>
+        <v>0.05781144818133358</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>6</v>
@@ -7028,19 +7028,19 @@
         <v>5534</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1952</v>
+        <v>1843</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>11157</v>
+        <v>11042</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.07323423689696081</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02583001917046235</v>
+        <v>0.0243870783467627</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1476354135732237</v>
+        <v>0.1461186402613209</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>8</v>
@@ -7049,19 +7049,19 @@
         <v>7396</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3619</v>
+        <v>3601</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>14859</v>
+        <v>14615</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04039901686390053</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01976600809489589</v>
+        <v>0.0196720517590038</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08116760990326331</v>
+        <v>0.07983067772115078</v>
       </c>
     </row>
     <row r="35">
@@ -7078,19 +7078,19 @@
         <v>27563</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>19671</v>
+        <v>19136</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>38669</v>
+        <v>37208</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2563983224197177</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1829780022911407</v>
+        <v>0.1780033540766077</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3597043583550473</v>
+        <v>0.3461187028270771</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>13</v>
@@ -7099,19 +7099,19 @@
         <v>13107</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>7447</v>
+        <v>7396</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>20311</v>
+        <v>21332</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1734506775366264</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09854935425920573</v>
+        <v>0.09787245687464566</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2687799829329511</v>
+        <v>0.2822835810821055</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>39</v>
@@ -7120,19 +7120,19 @@
         <v>40671</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>30436</v>
+        <v>30351</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>53517</v>
+        <v>52560</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2221589848445062</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1662538405856366</v>
+        <v>0.1657882291642726</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2923294071770786</v>
+        <v>0.2871012301760024</v>
       </c>
     </row>
     <row r="36">
@@ -7149,19 +7149,19 @@
         <v>30003</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>21869</v>
+        <v>21310</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>41041</v>
+        <v>39959</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2790930758064815</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2034270439807011</v>
+        <v>0.1982262465997535</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3817706351221796</v>
+        <v>0.3717030468274292</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>31</v>
@@ -7170,19 +7170,19 @@
         <v>30105</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>22500</v>
+        <v>22506</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>39006</v>
+        <v>38805</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3983843011309935</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2977436735879785</v>
+        <v>0.2978195122819591</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5161708552213304</v>
+        <v>0.51351707533833</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>59</v>
@@ -7191,19 +7191,19 @@
         <v>60109</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>47322</v>
+        <v>47478</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>73354</v>
+        <v>73462</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3283344079673081</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2584897318437996</v>
+        <v>0.2593430005660443</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4006847657187134</v>
+        <v>0.4012775817567073</v>
       </c>
     </row>
     <row r="37">
@@ -7220,19 +7220,19 @@
         <v>23562</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>16178</v>
+        <v>15924</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>32090</v>
+        <v>33514</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2191761034132043</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1504879665390677</v>
+        <v>0.1481246420952418</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2985057902572704</v>
+        <v>0.3117559166005436</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>18</v>
@@ -7241,19 +7241,19 @@
         <v>16982</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>10364</v>
+        <v>10869</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>24111</v>
+        <v>25275</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2247221518059327</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1371489044014523</v>
+        <v>0.1438306939841727</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3190685739558726</v>
+        <v>0.3344721623424959</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>41</v>
@@ -7262,19 +7262,19 @@
         <v>40544</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>29898</v>
+        <v>29783</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>52156</v>
+        <v>52295</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2214654152242235</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1633162862591888</v>
+        <v>0.1626845573070128</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2848971171110331</v>
+        <v>0.285652131200492</v>
       </c>
     </row>
     <row r="38">
@@ -7291,19 +7291,19 @@
         <v>24512</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>15921</v>
+        <v>16962</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>34025</v>
+        <v>33534</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2280148868093873</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1480980460440282</v>
+        <v>0.1577805336388743</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3165015624655468</v>
+        <v>0.3119387389793855</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>9</v>
@@ -7312,19 +7312,19 @@
         <v>9840</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>5017</v>
+        <v>4852</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>16652</v>
+        <v>17654</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1302086326294865</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.06639672604235203</v>
+        <v>0.06421224594060158</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.22035457199557</v>
+        <v>0.2336176705553576</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>33</v>
@@ -7333,19 +7333,19 @@
         <v>34352</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>24678</v>
+        <v>23846</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>45192</v>
+        <v>45112</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1876421751000616</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1347986071022599</v>
+        <v>0.1302556710599603</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2468548462751427</v>
+        <v>0.2464204914009561</v>
       </c>
     </row>
     <row r="39">
@@ -7437,19 +7437,19 @@
         <v>90920</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>74254</v>
+        <v>72942</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>110678</v>
+        <v>108320</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2533483443797633</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2069063091612383</v>
+        <v>0.2032529017056008</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3084032677520266</v>
+        <v>0.3018322727264355</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>68</v>
@@ -7458,19 +7458,19 @@
         <v>71942</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>57771</v>
+        <v>58016</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>88417</v>
+        <v>88030</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2534534912015589</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2035297766091952</v>
+        <v>0.2043927073218871</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3114971189591096</v>
+        <v>0.3101326075513294</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>150</v>
@@ -7479,19 +7479,19 @@
         <v>162862</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>140585</v>
+        <v>141656</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>186919</v>
+        <v>185463</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2533947805576011</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.218734230222245</v>
+        <v>0.2203997424365419</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.290824303885211</v>
+        <v>0.2885597927466165</v>
       </c>
     </row>
     <row r="41">
@@ -7508,19 +7508,19 @@
         <v>68541</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>53525</v>
+        <v>53837</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>83916</v>
+        <v>85411</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1909871518752735</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1491452940619594</v>
+        <v>0.150016612781728</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2338317094135076</v>
+        <v>0.2379954784756369</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>53</v>
@@ -7529,19 +7529,19 @@
         <v>55878</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>42651</v>
+        <v>42343</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>70430</v>
+        <v>69530</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1968589780897541</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1502624110687933</v>
+        <v>0.1491755110869349</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2481270229267899</v>
+        <v>0.2449566555221853</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>114</v>
@@ -7550,19 +7550,19 @@
         <v>124418</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>103049</v>
+        <v>105298</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>145170</v>
+        <v>148063</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1935803369252068</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1603326482901686</v>
+        <v>0.1638312644362809</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2258680024966284</v>
+        <v>0.2303693647959128</v>
       </c>
     </row>
     <row r="42">
@@ -7579,19 +7579,19 @@
         <v>117019</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>99526</v>
+        <v>97936</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>136819</v>
+        <v>136711</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3260707682199154</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.277328818651621</v>
+        <v>0.2728959701286935</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3812455235266738</v>
+        <v>0.3809441109123684</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>72</v>
@@ -7600,19 +7600,19 @@
         <v>71374</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>58211</v>
+        <v>57907</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>86880</v>
+        <v>87138</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2514549401431471</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2050781528976509</v>
+        <v>0.2040089182392984</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3060828723149405</v>
+        <v>0.3069915577597594</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>170</v>
@@ -7621,19 +7621,19 @@
         <v>188393</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>167550</v>
+        <v>164432</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>212240</v>
+        <v>212944</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2931180474156292</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2606882413336781</v>
+        <v>0.2558370313568357</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3302215647345736</v>
+        <v>0.331316532331535</v>
       </c>
     </row>
     <row r="43">
@@ -7650,19 +7650,19 @@
         <v>39538</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>27381</v>
+        <v>28588</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>52613</v>
+        <v>53917</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1101707490601196</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.07629636999861988</v>
+        <v>0.07966007676976178</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1466052726646461</v>
+        <v>0.150237757543355</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>46</v>
@@ -7671,19 +7671,19 @@
         <v>47991</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>36264</v>
+        <v>36116</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>62072</v>
+        <v>60927</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1690758218765735</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1277588139499424</v>
+        <v>0.1272388943675842</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2186834010161683</v>
+        <v>0.2146496645053225</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>81</v>
@@ -7692,19 +7692,19 @@
         <v>87529</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>70786</v>
+        <v>71550</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>108169</v>
+        <v>108876</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1361851010884811</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.11013427347838</v>
+        <v>0.1113242456353989</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1682990818716643</v>
+        <v>0.1693989101350355</v>
       </c>
     </row>
     <row r="44">
@@ -7721,19 +7721,19 @@
         <v>42858</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>30511</v>
+        <v>31316</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>56199</v>
+        <v>58092</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1194229864649282</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.08501746414810066</v>
+        <v>0.08726097778401619</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1565967599837447</v>
+        <v>0.1618723364738987</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>34</v>
@@ -7742,19 +7742,19 @@
         <v>36661</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>25951</v>
+        <v>26509</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>49181</v>
+        <v>49804</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1291567686889664</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.09142651426459299</v>
+        <v>0.09339186759640207</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1732650949564853</v>
+        <v>0.1754600379427653</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>70</v>
@@ -7763,19 +7763,19 @@
         <v>79519</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>63116</v>
+        <v>63631</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>96995</v>
+        <v>98462</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1237217340130817</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.09820176371829316</v>
+        <v>0.09900293583305692</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1509125587374182</v>
+        <v>0.1531948189402661</v>
       </c>
     </row>
     <row r="45">
@@ -7867,19 +7867,19 @@
         <v>9442</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>5118</v>
+        <v>5073</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>17734</v>
+        <v>17640</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02879445974171009</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01560928295707916</v>
+        <v>0.01547165342385232</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.0540817703397547</v>
+        <v>0.05379603943752075</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>14</v>
@@ -7888,19 +7888,19 @@
         <v>14334</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>8044</v>
+        <v>8224</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>22916</v>
+        <v>23462</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.06042793545613125</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.0339109012924678</v>
+        <v>0.03467153404404533</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.09660705769127609</v>
+        <v>0.09891115990889277</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>23</v>
@@ -7909,19 +7909,19 @@
         <v>23776</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>15831</v>
+        <v>15795</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>34285</v>
+        <v>34059</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.04207248801563611</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02801364379226218</v>
+        <v>0.0279499369724209</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.06066797069077851</v>
+        <v>0.06026806065010751</v>
       </c>
     </row>
     <row r="47">
@@ -7938,19 +7938,19 @@
         <v>37508</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>26974</v>
+        <v>26432</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>51625</v>
+        <v>50530</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1143831539587168</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.08225905596885767</v>
+        <v>0.08060628664849188</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1574357510629498</v>
+        <v>0.1540971647913462</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>25</v>
@@ -7959,19 +7959,19 @@
         <v>24913</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>16543</v>
+        <v>15738</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>35964</v>
+        <v>35337</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1050271789978501</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.06974086998714593</v>
+        <v>0.06634726102528429</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1516146751074149</v>
+        <v>0.1489698389165426</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>60</v>
@@ -7980,19 +7980,19 @@
         <v>62421</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>48552</v>
+        <v>49316</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>79388</v>
+        <v>78798</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1104560198940936</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0859141903124096</v>
+        <v>0.08726630736811708</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1404796236951919</v>
+        <v>0.1394355793915634</v>
       </c>
     </row>
     <row r="48">
@@ -8009,19 +8009,19 @@
         <v>99780</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>83246</v>
+        <v>83659</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>117521</v>
+        <v>115805</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3042890580465138</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2538649284262053</v>
+        <v>0.2551240799888752</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3583918605919648</v>
+        <v>0.3531567811851519</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>77</v>
@@ -8030,19 +8030,19 @@
         <v>79607</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>64864</v>
+        <v>65536</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>94326</v>
+        <v>94374</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3356009622556151</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2734510227556159</v>
+        <v>0.2762812533836286</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3976543419310315</v>
+        <v>0.3978552480225002</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>175</v>
@@ -8051,19 +8051,19 @@
         <v>179387</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>159267</v>
+        <v>157458</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>201634</v>
+        <v>202745</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3174321079330418</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2818283213790219</v>
+        <v>0.2786283345475927</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3567988278093075</v>
+        <v>0.3587649079987086</v>
       </c>
     </row>
     <row r="49">
@@ -8080,19 +8080,19 @@
         <v>108250</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>93551</v>
+        <v>92912</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>126701</v>
+        <v>126555</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3301169840004143</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2852924785175481</v>
+        <v>0.2833433319952672</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3863867451773195</v>
+        <v>0.3859398925269936</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>78</v>
@@ -8101,19 +8101,19 @@
         <v>82988</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>67956</v>
+        <v>68578</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>97976</v>
+        <v>97767</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3498540727930867</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2864826481395099</v>
+        <v>0.2891052014931174</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.413038653166266</v>
+        <v>0.4121584113747718</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>182</v>
@@ -8122,19 +8122,19 @@
         <v>191237</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>169425</v>
+        <v>167421</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>214387</v>
+        <v>213406</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3384015501796097</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2998044879690366</v>
+        <v>0.2962587422461435</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3793666622832595</v>
+        <v>0.3776294036220433</v>
       </c>
     </row>
     <row r="50">
@@ -8151,19 +8151,19 @@
         <v>72933</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>59700</v>
+        <v>58574</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>90397</v>
+        <v>89739</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.222416344252645</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1820601522165245</v>
+        <v>0.1786268543288629</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2756750647083306</v>
+        <v>0.2736681572289927</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>34</v>
@@ -8172,19 +8172,19 @@
         <v>35365</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>25194</v>
+        <v>25639</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>47643</v>
+        <v>47642</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1490898504973169</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1062098293169381</v>
+        <v>0.108087361174302</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2008502687855135</v>
+        <v>0.2008458888545548</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>102</v>
@@ -8193,19 +8193,19 @@
         <v>108298</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>89074</v>
+        <v>89608</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>127803</v>
+        <v>129238</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1916378339776187</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1576202029438203</v>
+        <v>0.1585652502894284</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2261524620904715</v>
+        <v>0.2286918398500796</v>
       </c>
     </row>
     <row r="51">
@@ -8297,19 +8297,19 @@
         <v>260768</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>231378</v>
+        <v>234069</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>294259</v>
+        <v>292406</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1841143085800278</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1633635579876818</v>
+        <v>0.1652632889524948</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.207760679478223</v>
+        <v>0.2064523322991978</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>205</v>
@@ -8318,19 +8318,19 @@
         <v>212908</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>186133</v>
+        <v>188689</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>239695</v>
+        <v>239129</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.2063099571820494</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1803649064681847</v>
+        <v>0.1828411669249095</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.232267063931465</v>
+        <v>0.2317179162516544</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>445</v>
@@ -8339,19 +8339,19 @@
         <v>473676</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>435078</v>
+        <v>437181</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>512933</v>
+        <v>516086</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.193469914361544</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1777047777601246</v>
+        <v>0.1785638422653</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.2095040852938656</v>
+        <v>0.2107920078502555</v>
       </c>
     </row>
     <row r="53">
@@ -8368,19 +8368,19 @@
         <v>220350</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>193673</v>
+        <v>191754</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>246408</v>
+        <v>247748</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1555773088809818</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.136742023140585</v>
+        <v>0.1353874500068369</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.173975379222523</v>
+        <v>0.1749216573664992</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>140</v>
@@ -8389,19 +8389,19 @@
         <v>143558</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>122574</v>
+        <v>121925</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>167763</v>
+        <v>167588</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1391093330498343</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1187755368065582</v>
+        <v>0.118146592025663</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1625635153584207</v>
+        <v>0.1623945528598629</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>347</v>
@@ -8410,19 +8410,19 @@
         <v>363908</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>331821</v>
+        <v>329238</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>401827</v>
+        <v>401275</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1486359532730308</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1355301469314696</v>
+        <v>0.1344751894160243</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1641238731708068</v>
+        <v>0.1638980849834947</v>
       </c>
     </row>
     <row r="54">
@@ -8439,19 +8439,19 @@
         <v>380823</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>344826</v>
+        <v>351179</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>416542</v>
+        <v>414363</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2688787613293862</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2434629128890997</v>
+        <v>0.2479490444046545</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2940980999097297</v>
+        <v>0.2925594693764108</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>273</v>
@@ -8460,19 +8460,19 @@
         <v>272623</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>245189</v>
+        <v>244816</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>303033</v>
+        <v>301535</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2641739893432472</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2375908396530141</v>
+        <v>0.237228820986335</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2936417720034785</v>
+        <v>0.2921905445784819</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>623</v>
@@ -8481,19 +8481,19 @@
         <v>653445</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>609116</v>
+        <v>614229</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>696535</v>
+        <v>697007</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2668956702837734</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2487895602910521</v>
+        <v>0.2508780300565814</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2844951949600192</v>
+        <v>0.2846881914490128</v>
       </c>
     </row>
     <row r="55">
@@ -8510,19 +8510,19 @@
         <v>282915</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>251919</v>
+        <v>254064</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>316382</v>
+        <v>314577</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1997512253316293</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1778666756585663</v>
+        <v>0.179381326593483</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2233802871174634</v>
+        <v>0.2221061998285959</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>216</v>
@@ -8531,19 +8531,19 @@
         <v>220765</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>194661</v>
+        <v>197368</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>247592</v>
+        <v>248528</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.213923375572863</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1886280343683746</v>
+        <v>0.1912513334759561</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2399185352645162</v>
+        <v>0.2408263643698511</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>485</v>
@@ -8552,19 +8552,19 @@
         <v>503680</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>465979</v>
+        <v>467051</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>545062</v>
+        <v>550659</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2057248759831956</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.190326098328588</v>
+        <v>0.1907640582939685</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2226270337702161</v>
+        <v>0.2249133695165955</v>
       </c>
     </row>
     <row r="56">
@@ -8581,19 +8581,19 @@
         <v>271481</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>243214</v>
+        <v>239191</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>304326</v>
+        <v>301991</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1916783958779749</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.171720407248871</v>
+        <v>0.1688799342428678</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2148684981368698</v>
+        <v>0.2132196326608463</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>174</v>
@@ -8602,19 +8602,19 @@
         <v>182128</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>156233</v>
+        <v>156748</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>206192</v>
+        <v>207269</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.1764833448520061</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1513908069873649</v>
+        <v>0.1518898539524722</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1998019630113889</v>
+        <v>0.2008459287134901</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>425</v>
@@ -8623,19 +8623,19 @@
         <v>453609</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>415770</v>
+        <v>413133</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>494951</v>
+        <v>494729</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1852735860984563</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1698188033901695</v>
+        <v>0.1687414963657687</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2021595872545456</v>
+        <v>0.2020688230197997</v>
       </c>
     </row>
     <row r="57">
@@ -8971,19 +8971,19 @@
         <v>7719</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1407</v>
+        <v>2451</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15593</v>
+        <v>16033</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.189010933919323</v>
+        <v>0.1890109339193231</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03444479611268593</v>
+        <v>0.06002239325295136</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3818085948441594</v>
+        <v>0.3925685125756426</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -8992,19 +8992,19 @@
         <v>3242</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1013</v>
+        <v>888</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7180</v>
+        <v>6901</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09902938076061811</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0309493148167477</v>
+        <v>0.02712010008157836</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2193110471989139</v>
+        <v>0.210778318620204</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -9013,19 +9013,19 @@
         <v>10962</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4728</v>
+        <v>4835</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20857</v>
+        <v>20811</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1489729501445482</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06425622809455141</v>
+        <v>0.06570952759044119</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2834531260374884</v>
+        <v>0.282822048256435</v>
       </c>
     </row>
     <row r="5">
@@ -9058,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5309</v>
+        <v>5785</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04754639789153951</v>
@@ -9067,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.162155751310326</v>
+        <v>0.1766860382241706</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -9079,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5216</v>
+        <v>5482</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02115613523555062</v>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07088266889503489</v>
+        <v>0.07450161172927634</v>
       </c>
     </row>
     <row r="6">
@@ -9105,19 +9105,19 @@
         <v>13524</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8010</v>
+        <v>7654</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20219</v>
+        <v>20609</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3311289851739929</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1961370198419517</v>
+        <v>0.1874082555508086</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.495060666087639</v>
+        <v>0.5046092846356685</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -9126,19 +9126,19 @@
         <v>10085</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6537</v>
+        <v>6325</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14447</v>
+        <v>14032</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3080354938878854</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1996489489393717</v>
+        <v>0.1931955145248873</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4412584816623564</v>
+        <v>0.4285869974427303</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>33</v>
@@ -9147,19 +9147,19 @@
         <v>23609</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16755</v>
+        <v>16616</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>31647</v>
+        <v>30861</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3208533587043621</v>
+        <v>0.3208533587043622</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2277083185306534</v>
+        <v>0.2258110717654557</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4300945649163738</v>
+        <v>0.4194141313287828</v>
       </c>
     </row>
     <row r="7">
@@ -9176,19 +9176,19 @@
         <v>16970</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10950</v>
+        <v>11010</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24336</v>
+        <v>24773</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4155111931417138</v>
+        <v>0.4155111931417139</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2681085023260473</v>
+        <v>0.2695827596949075</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.595869379343648</v>
+        <v>0.6065708439138475</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -9197,19 +9197,19 @@
         <v>16852</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12087</v>
+        <v>12454</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20960</v>
+        <v>21007</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5147019340491747</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3691578928840493</v>
+        <v>0.3803794042585823</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6401781284044834</v>
+        <v>0.6415997263643085</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -9218,19 +9218,19 @@
         <v>33822</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25575</v>
+        <v>27139</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41913</v>
+        <v>43250</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.459646875797205</v>
+        <v>0.4596468757972051</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3475722276063541</v>
+        <v>0.36882093989942</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5696048776331782</v>
+        <v>0.587778565797045</v>
       </c>
     </row>
     <row r="8">
@@ -9247,19 +9247,19 @@
         <v>2628</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>300</v>
+        <v>747</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7087</v>
+        <v>6822</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06434888776497022</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007355693850547193</v>
+        <v>0.01829429272717325</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1735187515915303</v>
+        <v>0.1670491919211837</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -9271,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3198</v>
+        <v>3621</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03068679341078235</v>
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09768046540323701</v>
+        <v>0.1105919997631162</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -9289,19 +9289,19 @@
         <v>3633</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1350</v>
+        <v>1308</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8340</v>
+        <v>7938</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04937068011833404</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01835238627031592</v>
+        <v>0.0177778815545241</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1133481320414648</v>
+        <v>0.1078745550183335</v>
       </c>
     </row>
     <row r="9">
@@ -9393,19 +9393,19 @@
         <v>14258</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7565</v>
+        <v>7410</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23431</v>
+        <v>23334</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2752960230879343</v>
+        <v>0.2752960230879344</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1460730635426189</v>
+        <v>0.1430666161073836</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4524163765153353</v>
+        <v>0.4505461477962427</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -9414,19 +9414,19 @@
         <v>15106</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9916</v>
+        <v>9748</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21268</v>
+        <v>21471</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3509452556821115</v>
+        <v>0.3509452556821116</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2303675087845427</v>
+        <v>0.2264732507975238</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4941028138021972</v>
+        <v>0.4988109757609275</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -9435,19 +9435,19 @@
         <v>29364</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21009</v>
+        <v>20990</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39339</v>
+        <v>39567</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3096319584680282</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2215280827219372</v>
+        <v>0.2213342441293791</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4148179631510624</v>
+        <v>0.4172183493597776</v>
       </c>
     </row>
     <row r="11">
@@ -9464,19 +9464,19 @@
         <v>12565</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6705</v>
+        <v>6048</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22381</v>
+        <v>21670</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2426134627942046</v>
+        <v>0.2426134627942047</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1294608800686159</v>
+        <v>0.1167734286239666</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.432143695028402</v>
+        <v>0.4184041933847132</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -9485,19 +9485,19 @@
         <v>8557</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4381</v>
+        <v>3908</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14595</v>
+        <v>14432</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.198804568742051</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.101789223951833</v>
+        <v>0.09078412930148311</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3390699348570319</v>
+        <v>0.3352828020832981</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>18</v>
@@ -9506,19 +9506,19 @@
         <v>21123</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12395</v>
+        <v>12963</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>31018</v>
+        <v>30839</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2227293304155252</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1306980848286027</v>
+        <v>0.1366900742116289</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3270688220035695</v>
+        <v>0.325184388281974</v>
       </c>
     </row>
     <row r="12">
@@ -9535,19 +9535,19 @@
         <v>14533</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7451</v>
+        <v>7300</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>24633</v>
+        <v>24578</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2806091899890258</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1438720396524834</v>
+        <v>0.140956536418637</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4756264462610075</v>
+        <v>0.4745562187547617</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -9556,19 +9556,19 @@
         <v>8482</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4460</v>
+        <v>4298</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13852</v>
+        <v>14555</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.197045495434207</v>
+        <v>0.1970454954342069</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1036087914855551</v>
+        <v>0.0998402272851341</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.321815823849429</v>
+        <v>0.3381511996831789</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>19</v>
@@ -9577,19 +9577,19 @@
         <v>23015</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15281</v>
+        <v>15074</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>34598</v>
+        <v>34802</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2426810112360663</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1611343918826722</v>
+        <v>0.1589460397651305</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3648184177889893</v>
+        <v>0.3669727636350777</v>
       </c>
     </row>
     <row r="13">
@@ -9609,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5841</v>
+        <v>5689</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02121687637187126</v>
@@ -9618,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1127848948799165</v>
+        <v>0.1098439493804144</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4774</v>
+        <v>5646</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01158688712954701</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05033964779577286</v>
+        <v>0.05953136331125607</v>
       </c>
     </row>
     <row r="14">
@@ -9669,19 +9669,19 @@
         <v>9336</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3871</v>
+        <v>3884</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17380</v>
+        <v>18290</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1802644477569639</v>
+        <v>0.180264447756964</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07473697827151181</v>
+        <v>0.0750000932524727</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3355803477772283</v>
+        <v>0.3531524412411727</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -9690,19 +9690,19 @@
         <v>10899</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6634</v>
+        <v>6246</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16763</v>
+        <v>16251</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2532046801416306</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1541329722996601</v>
+        <v>0.1450967967052048</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.389448662457346</v>
+        <v>0.3775512649459392</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -9711,19 +9711,19 @@
         <v>20235</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12585</v>
+        <v>12282</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29283</v>
+        <v>30051</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2133708127508332</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1327006651981205</v>
+        <v>0.1295078883870769</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3087803295771496</v>
+        <v>0.3168746740807619</v>
       </c>
     </row>
     <row r="15">
@@ -9815,19 +9815,19 @@
         <v>8292</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4368</v>
+        <v>4329</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13786</v>
+        <v>14054</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2878495577998593</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1516230617606736</v>
+        <v>0.1502772687598099</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4785971595110629</v>
+        <v>0.4879021918404934</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -9836,19 +9836,19 @@
         <v>10402</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6347</v>
+        <v>5604</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15808</v>
+        <v>14765</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3586046570798639</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.21881442279388</v>
+        <v>0.1932069044219339</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5449703679866311</v>
+        <v>0.5090030001439708</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -9857,19 +9857,19 @@
         <v>18694</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12229</v>
+        <v>13022</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26222</v>
+        <v>26568</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3233507974581967</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2115308964915065</v>
+        <v>0.2252540395414872</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4535743362008807</v>
+        <v>0.459561962390191</v>
       </c>
     </row>
     <row r="17">
@@ -9886,19 +9886,19 @@
         <v>3964</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9928</v>
+        <v>9943</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1376172488613863</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0</v>
+        <v>0.04097637074853375</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3446766862665868</v>
+        <v>0.3451863577939954</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -9907,19 +9907,19 @@
         <v>7397</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3855</v>
+        <v>3869</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11813</v>
+        <v>12182</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.255016926884584</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.132881771419658</v>
+        <v>0.1333875663853037</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4072589563686876</v>
+        <v>0.4199649938927327</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -9928,19 +9928,19 @@
         <v>11361</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6458</v>
+        <v>6317</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18019</v>
+        <v>18289</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1965223192764456</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1116988192460418</v>
+        <v>0.109271228704586</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.311679322360387</v>
+        <v>0.3163542640082135</v>
       </c>
     </row>
     <row r="18">
@@ -9957,19 +9957,19 @@
         <v>6388</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2600</v>
+        <v>2774</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11474</v>
+        <v>12606</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2217814427106265</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09025755630853291</v>
+        <v>0.09629479802932348</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3983467368278644</v>
+        <v>0.4376205803217779</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -9978,19 +9978,19 @@
         <v>3851</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1689</v>
+        <v>1730</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7961</v>
+        <v>7806</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1327454714863651</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05821622540240427</v>
+        <v>0.05965285062496212</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2744357847637577</v>
+        <v>0.2691166518686197</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>12</v>
@@ -9999,19 +9999,19 @@
         <v>10239</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5264</v>
+        <v>5412</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>16240</v>
+        <v>16147</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1771078095052443</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09106198966864433</v>
+        <v>0.09360753142003758</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2809182660239594</v>
+        <v>0.2792942308079613</v>
       </c>
     </row>
     <row r="19">
@@ -10028,19 +10028,19 @@
         <v>4146</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>935</v>
+        <v>944</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9102</v>
+        <v>9258</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1439175769737166</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03247063494114079</v>
+        <v>0.03278218876112499</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3159989891489324</v>
+        <v>0.3214051485507891</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -10049,19 +10049,19 @@
         <v>4790</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2049</v>
+        <v>1846</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8983</v>
+        <v>9269</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1651333640323908</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07063008795123178</v>
+        <v>0.06365540211865578</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3096728683811216</v>
+        <v>0.3195482422214639</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -10070,19 +10070,19 @@
         <v>8936</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4804</v>
+        <v>4526</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14914</v>
+        <v>15231</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1545625587287361</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08309657620196106</v>
+        <v>0.07828106301885872</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2579700528204717</v>
+        <v>0.2634490264395946</v>
       </c>
     </row>
     <row r="20">
@@ -10099,19 +10099,19 @@
         <v>6015</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2192</v>
+        <v>2706</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10928</v>
+        <v>10939</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2088341736544113</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07608918218423355</v>
+        <v>0.09394723849819371</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3793951103919202</v>
+        <v>0.379750357749066</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -10120,19 +10120,19 @@
         <v>2567</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5578</v>
+        <v>6038</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.08849958051679623</v>
+        <v>0.08849958051679621</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02292567831704329</v>
+        <v>0.02223864039569133</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1922948417736368</v>
+        <v>0.2081574372285303</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -10141,19 +10141,19 @@
         <v>8583</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4316</v>
+        <v>4398</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14565</v>
+        <v>14884</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1484565150313775</v>
+        <v>0.1484565150313774</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07466440757335577</v>
+        <v>0.07607675064657295</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2519453841336588</v>
+        <v>0.2574530195670305</v>
       </c>
     </row>
     <row r="21">
@@ -10245,19 +10245,19 @@
         <v>34377</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21251</v>
+        <v>23002</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46873</v>
+        <v>46528</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.4905136102361928</v>
+        <v>0.4905136102361929</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3032270467538524</v>
+        <v>0.3282175317662077</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6688214612234141</v>
+        <v>0.6638995210525992</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -10266,19 +10266,19 @@
         <v>29583</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21976</v>
+        <v>22129</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>36625</v>
+        <v>36281</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6270869849034533</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4658329449003431</v>
+        <v>0.4690838110233843</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7763625564531041</v>
+        <v>0.7690775036433325</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -10287,19 +10287,19 @@
         <v>63960</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>48840</v>
+        <v>50054</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>78956</v>
+        <v>80120</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5454594794317669</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4165127216353631</v>
+        <v>0.4268673850788208</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6733449426874184</v>
+        <v>0.6832724755332809</v>
       </c>
     </row>
     <row r="23">
@@ -10319,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6047</v>
+        <v>5460</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01532485200174196</v>
@@ -10328,7 +10328,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08628554714443265</v>
+        <v>0.07790383664618965</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -10340,7 +10340,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3026</v>
+        <v>3331</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01209702074346857</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06415290146099649</v>
+        <v>0.07061533704516355</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5784</v>
+        <v>5858</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01402623875055318</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0493251783535054</v>
+        <v>0.04996059437726316</v>
       </c>
     </row>
     <row r="24">
@@ -10387,19 +10387,19 @@
         <v>6401</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1965</v>
+        <v>1937</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15551</v>
+        <v>15602</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.0913303503688304</v>
+        <v>0.09133035036883042</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02803579167251104</v>
+        <v>0.02763734013809536</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2218907569086097</v>
+        <v>0.2226256202448573</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4424</v>
+        <v>4070</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02681779169165741</v>
@@ -10420,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09377324865391619</v>
+        <v>0.08628195501931907</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -10429,19 +10429,19 @@
         <v>7666</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2987</v>
+        <v>2968</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>17774</v>
+        <v>16971</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.06537581406785782</v>
+        <v>0.06537581406785781</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02547010652113548</v>
+        <v>0.02531433233270926</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1515788927126586</v>
+        <v>0.1447336156215225</v>
       </c>
     </row>
     <row r="25">
@@ -10458,19 +10458,19 @@
         <v>4792</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1478</v>
+        <v>1515</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12471</v>
+        <v>12234</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06837974954342788</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02108613885695344</v>
+        <v>0.02161449229062411</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1779411871821207</v>
+        <v>0.1745582949764715</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -10479,19 +10479,19 @@
         <v>5877</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2568</v>
+        <v>2395</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11491</v>
+        <v>11254</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1245864376231601</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05443014016630036</v>
+        <v>0.05077179278077695</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2435850450447288</v>
+        <v>0.2385690530513682</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -10500,19 +10500,19 @@
         <v>10670</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5573</v>
+        <v>5116</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18054</v>
+        <v>18929</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.09099268810974522</v>
+        <v>0.09099268810974519</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0475278323132754</v>
+        <v>0.04362905756599583</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1539627091871681</v>
+        <v>0.1614264318700088</v>
       </c>
     </row>
     <row r="26">
@@ -10529,19 +10529,19 @@
         <v>23439</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12122</v>
+        <v>11888</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>38331</v>
+        <v>36216</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3344514378498067</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1729609055102579</v>
+        <v>0.1696206184485644</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.546938644800077</v>
+        <v>0.5167517431034198</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -10550,19 +10550,19 @@
         <v>9879</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4939</v>
+        <v>4765</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18334</v>
+        <v>19226</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2094117650382607</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1046886596594489</v>
+        <v>0.1010061247784333</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3886413921047556</v>
+        <v>0.4075413523788184</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -10571,19 +10571,19 @@
         <v>33319</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>19620</v>
+        <v>21163</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>51116</v>
+        <v>48643</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2841457796400769</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1673181349883006</v>
+        <v>0.1804767490434825</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4359271967742537</v>
+        <v>0.4148365658239486</v>
       </c>
     </row>
     <row r="27">
@@ -10675,19 +10675,19 @@
         <v>2000</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5524</v>
+        <v>5659</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.09018344314048134</v>
+        <v>0.09018344314048132</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0253952656401825</v>
+        <v>0.02647507785879467</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2491632816224191</v>
+        <v>0.2552510197046864</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -10699,16 +10699,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3759</v>
+        <v>3300</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.03214764383615384</v>
+        <v>0.03214764383615385</v>
       </c>
       <c r="O28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1615685203045829</v>
+        <v>0.1418318549938949</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -10717,19 +10717,19 @@
         <v>2747</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>690</v>
+        <v>728</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6313</v>
+        <v>6458</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.06046750145087255</v>
+        <v>0.06046750145087253</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01519069074986749</v>
+        <v>0.01601229610555951</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1389399801508783</v>
+        <v>0.1421214511453398</v>
       </c>
     </row>
     <row r="29">
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4537</v>
+        <v>3215</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03313794442299759</v>
@@ -10758,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2046238811370673</v>
+        <v>0.1449865123043926</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -10767,19 +10767,19 @@
         <v>5448</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2340</v>
+        <v>2708</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9264</v>
+        <v>9666</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.2341811345558264</v>
+        <v>0.2341811345558265</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1005644775680709</v>
+        <v>0.1164145394366501</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3981927264964107</v>
+        <v>0.4154822107398974</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -10788,19 +10788,19 @@
         <v>6183</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2696</v>
+        <v>2998</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10714</v>
+        <v>11699</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1360776434827572</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05932587762031789</v>
+        <v>0.0659809404327298</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2357970840172482</v>
+        <v>0.25747327131015</v>
       </c>
     </row>
     <row r="30">
@@ -10817,19 +10817,19 @@
         <v>12044</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7173</v>
+        <v>8076</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16113</v>
+        <v>16579</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5432263908224028</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3235087771393962</v>
+        <v>0.3642576924984232</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7267205291698935</v>
+        <v>0.747735535477002</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>24</v>
@@ -10838,19 +10838,19 @@
         <v>13820</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9429</v>
+        <v>9416</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17326</v>
+        <v>16958</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.594045168025816</v>
+        <v>0.5940451680258159</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4052930261599544</v>
+        <v>0.4047467607216093</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7447072581391845</v>
+        <v>0.7289041543661363</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>37</v>
@@ -10859,19 +10859,19 @@
         <v>25865</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20638</v>
+        <v>20339</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>32332</v>
+        <v>31388</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.5692470166811949</v>
+        <v>0.5692470166811948</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4542088398800637</v>
+        <v>0.4476244384589554</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7115745291483161</v>
+        <v>0.6908093787169167</v>
       </c>
     </row>
     <row r="31">
@@ -10888,19 +10888,19 @@
         <v>4384</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1525</v>
+        <v>2035</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8557</v>
+        <v>8307</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1977077831415294</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06878454974838198</v>
+        <v>0.09176580415625903</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3859426518596846</v>
+        <v>0.3746519061879482</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -10909,19 +10909,19 @@
         <v>2445</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>766</v>
+        <v>803</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>7489</v>
+        <v>5918</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1050885098912906</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03294278892689181</v>
+        <v>0.03451239858689077</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3219207391914976</v>
+        <v>0.2543649670138561</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>10</v>
@@ -10930,19 +10930,19 @@
         <v>6828</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3250</v>
+        <v>3535</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>11581</v>
+        <v>11188</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1502841419368013</v>
+        <v>0.1502841419368012</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0715246929726004</v>
+        <v>0.07778914926387771</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.254884622665711</v>
+        <v>0.2462293397327216</v>
       </c>
     </row>
     <row r="32">
@@ -10959,19 +10959,19 @@
         <v>3010</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>767</v>
+        <v>738</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6657</v>
+        <v>7045</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1357444384725888</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0345890285588939</v>
+        <v>0.03327729403477449</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3002581517889317</v>
+        <v>0.3177321164278231</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -10983,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2566</v>
+        <v>2498</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03453754369091307</v>
@@ -10992,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1102777855818245</v>
+        <v>0.1073887779941656</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -11001,19 +11001,19 @@
         <v>3813</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1556</v>
+        <v>1398</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8025</v>
+        <v>7876</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.08392369644837419</v>
+        <v>0.08392369644837418</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03424650610233072</v>
+        <v>0.03076460240875042</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1766184450121001</v>
+        <v>0.1733477867826762</v>
       </c>
     </row>
     <row r="33">
@@ -11105,19 +11105,19 @@
         <v>5052</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1902</v>
+        <v>1955</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10993</v>
+        <v>11194</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1509716824095224</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05683446967975031</v>
+        <v>0.05843521132275872</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3285326261162787</v>
+        <v>0.3345447941522978</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -11126,19 +11126,19 @@
         <v>5370</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2529</v>
+        <v>2369</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9366</v>
+        <v>9468</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2710444754131479</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1276614032162629</v>
+        <v>0.1195777420294275</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4727676629656618</v>
+        <v>0.477930220284759</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>12</v>
@@ -11147,19 +11147,19 @@
         <v>10421</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>6043</v>
+        <v>6087</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>16413</v>
+        <v>16460</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.195625683343913</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1134441691382531</v>
+        <v>0.1142710763833205</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3081073036636423</v>
+        <v>0.3089823366042661</v>
       </c>
     </row>
     <row r="35">
@@ -11192,16 +11192,16 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5000</v>
+        <v>4922</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.0822377305851754</v>
+        <v>0.08223773058517539</v>
       </c>
       <c r="O35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2523910187869912</v>
+        <v>0.2484474022179327</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2</v>
@@ -11213,7 +11213,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>5620</v>
+        <v>5504</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03058347862601734</v>
@@ -11222,7 +11222,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1055024164671303</v>
+        <v>0.1033300127800222</v>
       </c>
     </row>
     <row r="36">
@@ -11239,19 +11239,19 @@
         <v>14848</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9317</v>
+        <v>10082</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20518</v>
+        <v>20737</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4437626051294868</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2784665737382119</v>
+        <v>0.3013041786716236</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6132182824269875</v>
+        <v>0.619758752795757</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>8</v>
@@ -11260,19 +11260,19 @@
         <v>5981</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2610</v>
+        <v>2910</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>9670</v>
+        <v>9755</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3018825630901869</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1317354041622351</v>
+        <v>0.1468820597241852</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4881172395406875</v>
+        <v>0.4923963628453894</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>25</v>
@@ -11281,19 +11281,19 @@
         <v>20829</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>14255</v>
+        <v>15089</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>27046</v>
+        <v>27404</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.3909986827511427</v>
+        <v>0.3909986827511426</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2675853318736955</v>
+        <v>0.2832523512796611</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5077134872003353</v>
+        <v>0.5144178908574213</v>
       </c>
     </row>
     <row r="37">
@@ -11310,19 +11310,19 @@
         <v>4947</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1653</v>
+        <v>1881</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>9564</v>
+        <v>9658</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1478541460898722</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04939146983114853</v>
+        <v>0.0562309854956288</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2858328234313839</v>
+        <v>0.2886551543458806</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>5</v>
@@ -11331,19 +11331,19 @@
         <v>3576</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1163</v>
+        <v>1089</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>7276</v>
+        <v>7435</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1805206029541396</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05870710927027963</v>
+        <v>0.05497031122380802</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3672766292403307</v>
+        <v>0.3752741231096448</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>11</v>
@@ -11352,19 +11352,19 @@
         <v>8523</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4520</v>
+        <v>4248</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>14143</v>
+        <v>13924</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1600025100851711</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08484594037639123</v>
+        <v>0.07974165483319985</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2654890198072019</v>
+        <v>0.2613811385999779</v>
       </c>
     </row>
     <row r="38">
@@ -11381,19 +11381,19 @@
         <v>8613</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>4320</v>
+        <v>4093</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>14239</v>
+        <v>14286</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2574115663711188</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1290991754133633</v>
+        <v>0.1223147309395991</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4255441057929773</v>
+        <v>0.4269448843382385</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>6</v>
@@ -11402,19 +11402,19 @@
         <v>3255</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1062</v>
+        <v>1115</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>6312</v>
+        <v>6508</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.1643146279573502</v>
+        <v>0.1643146279573501</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.05363161684898593</v>
+        <v>0.05630406127617811</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3186089570931591</v>
+        <v>0.3285104760591841</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>15</v>
@@ -11423,19 +11423,19 @@
         <v>11868</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6868</v>
+        <v>7195</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>18121</v>
+        <v>18545</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.2227896451937559</v>
+        <v>0.222789645193756</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1289184742390675</v>
+        <v>0.1350644417073044</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3401572662872582</v>
+        <v>0.3481232196725088</v>
       </c>
     </row>
     <row r="39">
@@ -11527,19 +11527,19 @@
         <v>17858</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>11434</v>
+        <v>10461</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>29816</v>
+        <v>26358</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1953688813841059</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1250859630230274</v>
+        <v>0.1144406040577673</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.326183468472404</v>
+        <v>0.2883520967157752</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>42</v>
@@ -11548,19 +11548,19 @@
         <v>32061</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>23659</v>
+        <v>24527</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>40573</v>
+        <v>41287</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.3467208751063423</v>
+        <v>0.3467208751063424</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2558587599801188</v>
+        <v>0.2652480751452337</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4387688851168094</v>
+        <v>0.4464930682668105</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>57</v>
@@ -11569,19 +11569,19 @@
         <v>49920</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>39237</v>
+        <v>38850</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>62018</v>
+        <v>61952</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.2714813154658861</v>
+        <v>0.271481315465886</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.21338752140489</v>
+        <v>0.2112819914639836</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3372785958081584</v>
+        <v>0.3369195189714018</v>
       </c>
     </row>
     <row r="41">
@@ -11598,19 +11598,19 @@
         <v>3401</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>969</v>
+        <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8589</v>
+        <v>8561</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.03720769175827844</v>
+        <v>0.03720769175827843</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0106033393620182</v>
+        <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.09396336778034761</v>
+        <v>0.09365133108428732</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>10</v>
@@ -11619,19 +11619,19 @@
         <v>8071</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>4178</v>
+        <v>3674</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>14047</v>
+        <v>13585</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.0872788559711417</v>
+        <v>0.08727885597114171</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.04518562404919558</v>
+        <v>0.03972772410296376</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1519041172746136</v>
+        <v>0.1469140990578167</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>13</v>
@@ -11640,19 +11640,19 @@
         <v>11472</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>6025</v>
+        <v>5984</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>18756</v>
+        <v>18430</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.06238765861450383</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03276412966436064</v>
+        <v>0.03254208135227958</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1020023075179655</v>
+        <v>0.1002274948823614</v>
       </c>
     </row>
     <row r="42">
@@ -11669,19 +11669,19 @@
         <v>20324</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>12120</v>
+        <v>12179</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>30039</v>
+        <v>29942</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.2223370615515446</v>
+        <v>0.2223370615515445</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.132586499543489</v>
+        <v>0.1332386059649789</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3286239877844684</v>
+        <v>0.3275567674443217</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>18</v>
@@ -11690,19 +11690,19 @@
         <v>14999</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>8828</v>
+        <v>9340</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>22218</v>
+        <v>22769</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1622090834978792</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.09547231898366458</v>
+        <v>0.1010072552758822</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2402696876340987</v>
+        <v>0.2462349943374032</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>35</v>
@@ -11711,19 +11711,19 @@
         <v>35323</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>25263</v>
+        <v>26292</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>47981</v>
+        <v>47512</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1920996880387835</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1373871979300371</v>
+        <v>0.1429862725797066</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2609401762145022</v>
+        <v>0.2583872994192473</v>
       </c>
     </row>
     <row r="43">
@@ -11740,19 +11740,19 @@
         <v>17828</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>10406</v>
+        <v>10430</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>28384</v>
+        <v>28465</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.1950386722485376</v>
+        <v>0.1950386722485375</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1138411093182524</v>
+        <v>0.1141053637076179</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3105150187837268</v>
+        <v>0.3114073354514094</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>13</v>
@@ -11761,19 +11761,19 @@
         <v>10725</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>5877</v>
+        <v>5989</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>17490</v>
+        <v>17231</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1159862801336467</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.06355062153391683</v>
+        <v>0.06476861401147999</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1891419881622287</v>
+        <v>0.1863422880609328</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>26</v>
@@ -11782,19 +11782,19 @@
         <v>28554</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>18349</v>
+        <v>19610</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>39817</v>
+        <v>40843</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1552845214383809</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.09979103503462368</v>
+        <v>0.1066468930450988</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2165390313938377</v>
+        <v>0.222119150085237</v>
       </c>
     </row>
     <row r="44">
@@ -11811,19 +11811,19 @@
         <v>31998</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>22134</v>
+        <v>22651</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>42569</v>
+        <v>42748</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.3500476930575336</v>
+        <v>0.3500476930575335</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.242145450814448</v>
+        <v>0.2477977996253362</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4656951799727631</v>
+        <v>0.4676589885629258</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>31</v>
@@ -11832,19 +11832,19 @@
         <v>26613</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>19428</v>
+        <v>19056</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>35669</v>
+        <v>36316</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.28780490529099</v>
+        <v>0.2878049052909901</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2100978505903456</v>
+        <v>0.2060757367979903</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3857400292827798</v>
+        <v>0.3927295980509144</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>56</v>
@@ -11853,19 +11853,19 @@
         <v>58611</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>44579</v>
+        <v>45880</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>72386</v>
+        <v>72570</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3187468164424456</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2424366643951492</v>
+        <v>0.2495128465889116</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.393663434817157</v>
+        <v>0.3946638601329397</v>
       </c>
     </row>
     <row r="45">
@@ -11957,19 +11957,19 @@
         <v>30328</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>19491</v>
+        <v>20606</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>42270</v>
+        <v>42460</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2215450223473824</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1423774201711848</v>
+        <v>0.150523905278075</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3087753061698254</v>
+        <v>0.3101650963888551</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>39</v>
@@ -11978,19 +11978,19 @@
         <v>33065</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>24480</v>
+        <v>24680</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>41905</v>
+        <v>42059</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.3311113590541956</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2451408210916592</v>
+        <v>0.2471426367584584</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.4196289517116792</v>
+        <v>0.4211734296230557</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>62</v>
@@ -11999,19 +11999,19 @@
         <v>63394</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>49888</v>
+        <v>49580</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>78355</v>
+        <v>79252</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2677588286528625</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2107157184044493</v>
+        <v>0.2094119202490592</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.3309521814299755</v>
+        <v>0.3347404059816477</v>
       </c>
     </row>
     <row r="47">
@@ -12028,19 +12028,19 @@
         <v>30685</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>20670</v>
+        <v>20790</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>42303</v>
+        <v>42635</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2241484919218685</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1509942809291927</v>
+        <v>0.1518666917002316</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3090169928573736</v>
+        <v>0.3114443643869754</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>22</v>
@@ -12049,19 +12049,19 @@
         <v>19733</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>13286</v>
+        <v>12868</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>28272</v>
+        <v>28220</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1976077337896127</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1330495808430991</v>
+        <v>0.1288617711104219</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2831144776593769</v>
+        <v>0.282597474574425</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>46</v>
@@ -12070,19 +12070,19 @@
         <v>50418</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>38094</v>
+        <v>37632</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>66172</v>
+        <v>64859</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2129539088739132</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1608991011103373</v>
+        <v>0.1589466678941258</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.279495387197232</v>
+        <v>0.2739479972009913</v>
       </c>
     </row>
     <row r="48">
@@ -12099,19 +12099,19 @@
         <v>36786</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>26961</v>
+        <v>26283</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>49696</v>
+        <v>49086</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.268720239681138</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1969436875030649</v>
+        <v>0.1919925990443784</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3630213978612201</v>
+        <v>0.3585648340197802</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>32</v>
@@ -12120,19 +12120,19 @@
         <v>25515</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>17915</v>
+        <v>18568</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>33505</v>
+        <v>34714</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2555026387887331</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1794021664370806</v>
+        <v>0.1859395086421335</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3355132017246202</v>
+        <v>0.3476260439370214</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>63</v>
@@ -12141,19 +12141,19 @@
         <v>62301</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>49260</v>
+        <v>49422</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>76710</v>
+        <v>75862</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.2631452093769009</v>
+        <v>0.2631452093769008</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2080617430522118</v>
+        <v>0.2087479035288979</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3240063127665275</v>
+        <v>0.3204228377843094</v>
       </c>
     </row>
     <row r="49">
@@ -12170,19 +12170,19 @@
         <v>26005</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>17044</v>
+        <v>16391</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>36160</v>
+        <v>37176</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.189960817579696</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1245063947247246</v>
+        <v>0.119737617035831</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2641422393878575</v>
+        <v>0.2715689699308499</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>17</v>
@@ -12191,19 +12191,19 @@
         <v>14366</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>8827</v>
+        <v>9151</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>21480</v>
+        <v>22002</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.1438607351268377</v>
+        <v>0.1438607351268376</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.08839145283327386</v>
+        <v>0.09163361236933387</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2150946855927791</v>
+        <v>0.220322238380975</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>38</v>
@@ -12212,19 +12212,19 @@
         <v>40371</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>29183</v>
+        <v>29499</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>53783</v>
+        <v>53656</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.1705163390548375</v>
+        <v>0.1705163390548374</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1232625997719151</v>
+        <v>0.1245966812410873</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2271670186406585</v>
+        <v>0.2266317606536067</v>
       </c>
     </row>
     <row r="50">
@@ -12241,19 +12241,19 @@
         <v>13091</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>6796</v>
+        <v>6760</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>21279</v>
+        <v>22425</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.09562542846991491</v>
+        <v>0.09562542846991492</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.04964268860175555</v>
+        <v>0.04938214291388489</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1554386007062608</v>
+        <v>0.1638125973413624</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>9</v>
@@ -12262,19 +12262,19 @@
         <v>7182</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>3285</v>
+        <v>3743</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>12592</v>
+        <v>14321</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.07191753324062077</v>
+        <v>0.07191753324062075</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.03289683056493729</v>
+        <v>0.03748178902857167</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1260969995422777</v>
+        <v>0.1434048260910404</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>21</v>
@@ -12283,19 +12283,19 @@
         <v>20272</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>12573</v>
+        <v>12967</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>31154</v>
+        <v>30236</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.08562571404148608</v>
+        <v>0.08562571404148606</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.05310343015177754</v>
+        <v>0.05477123066721514</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1315870529888764</v>
+        <v>0.1277105708144035</v>
       </c>
     </row>
     <row r="51">
@@ -12387,19 +12387,19 @@
         <v>119884</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>99661</v>
+        <v>99287</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>145483</v>
+        <v>144230</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.2521441935768168</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.2096118124644677</v>
+        <v>0.2088249446180088</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.3059864763181243</v>
+        <v>0.3033502681157208</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>154</v>
@@ -12408,19 +12408,19 @@
         <v>129577</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>113136</v>
+        <v>113669</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>147616</v>
+        <v>148262</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.3345020436434823</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.2920583941059871</v>
+        <v>0.293434238427237</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.3810678471551249</v>
+        <v>0.382737030587791</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>244</v>
@@ -12429,19 +12429,19 @@
         <v>249461</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>222561</v>
+        <v>223697</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>279683</v>
+        <v>280141</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.2891193241605713</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.2579435110449542</v>
+        <v>0.2592598310597578</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.3241460180575423</v>
+        <v>0.3246770662531212</v>
       </c>
     </row>
     <row r="53">
@@ -12458,19 +12458,19 @@
         <v>52424</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>39512</v>
+        <v>37432</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>68705</v>
+        <v>69257</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1102600790221075</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.08310265159668288</v>
+        <v>0.07872912958052838</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1445038111902543</v>
+        <v>0.1456636020457389</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>65</v>
@@ -12479,19 +12479,19 @@
         <v>52963</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>42270</v>
+        <v>41983</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>66561</v>
+        <v>68185</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1367243032204613</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1091196700881897</v>
+        <v>0.108377354771574</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1718256967261287</v>
+        <v>0.1760190605933199</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>105</v>
@@ -12500,19 +12500,19 @@
         <v>105387</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>86928</v>
+        <v>85174</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>126936</v>
+        <v>124808</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1221413768551595</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1007480804744925</v>
+        <v>0.09871465267911954</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.147115343875181</v>
+        <v>0.144649970583189</v>
       </c>
     </row>
     <row r="54">
@@ -12529,19 +12529,19 @@
         <v>124849</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>103090</v>
+        <v>104051</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>145208</v>
+        <v>147007</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2625868553822283</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2168219728088796</v>
+        <v>0.2188434785601929</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3054079749940345</v>
+        <v>0.3091908445799655</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>119</v>
@@ -12550,19 +12550,19 @@
         <v>83998</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>69903</v>
+        <v>69465</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>99385</v>
+        <v>99145</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.2168392226756567</v>
+        <v>0.2168392226756568</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1804546567216216</v>
+        <v>0.1793223231054578</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2565603112485049</v>
+        <v>0.2559423604974018</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>230</v>
@@ -12571,19 +12571,19 @@
         <v>208846</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>184169</v>
+        <v>182186</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>234303</v>
+        <v>233460</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2420481369497546</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2134470391182265</v>
+        <v>0.2111497895278609</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2715516267510351</v>
+        <v>0.270574306565795</v>
       </c>
     </row>
     <row r="55">
@@ -12600,19 +12600,19 @@
         <v>80170</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>64334</v>
+        <v>64258</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>99406</v>
+        <v>100126</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1686175968728791</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1353100559868676</v>
+        <v>0.1351503279244858</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.209074395449095</v>
+        <v>0.2105880657551914</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>82</v>
@@ -12621,19 +12621,19 @@
         <v>58632</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>45492</v>
+        <v>46962</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>72393</v>
+        <v>70697</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1513568319363025</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1174373320013953</v>
+        <v>0.1212317495694012</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1868825213642672</v>
+        <v>0.1825028475188277</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>156</v>
@@ -12642,19 +12642,19 @@
         <v>138802</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>117679</v>
+        <v>118873</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>159437</v>
+        <v>160359</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.160868256196929</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1363866858298888</v>
+        <v>0.1377709317792413</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1847835049721611</v>
+        <v>0.1858524265586981</v>
       </c>
     </row>
     <row r="56">
@@ -12671,19 +12671,19 @@
         <v>98130</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>78056</v>
+        <v>79347</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>120447</v>
+        <v>121475</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2063912751459684</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1641707114155854</v>
+        <v>0.1668860654044162</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2533296512451256</v>
+        <v>0.2554909008292172</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>77</v>
@@ -12692,19 +12692,19 @@
         <v>62204</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>50149</v>
+        <v>50628</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>76303</v>
+        <v>78621</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.1605775985240971</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1294580440235064</v>
+        <v>0.1306950431323516</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1969737579401272</v>
+        <v>0.2029591367349985</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>151</v>
@@ -12713,19 +12713,19 @@
         <v>160334</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>135519</v>
+        <v>136543</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>188515</v>
+        <v>189933</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.1858229058375856</v>
+        <v>0.1858229058375857</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1570630455001145</v>
+        <v>0.1582497435921551</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2184840079695258</v>
+        <v>0.2201277363028593</v>
       </c>
     </row>
     <row r="57">
